--- a/templates/NHWA_Module_5.xlsx
+++ b/templates/NHWA_Module_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904E0DD-6CD6-42F3-AE9C-5289B5A02FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD9B8E-03AD-4C96-A72D-A9B929FC5BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D8NLvK0a2zIADanhZ9TwvH5vsYkmadwkU44pHflONSE2WP8HiyNEmpWYSjEZss1+UZ+xu9L5Oen+ioj0nOts3g==" workbookSaltValue="X5E0+xThdEGqXq8WVwCqrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="781">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2372,6 +2372,12 @@
   </si>
   <si>
     <t>Health Labour Market Flows</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -3542,8 +3548,8 @@
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>2</v>
+      <c r="B10" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>774</v>
@@ -3590,8 +3596,8 @@
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>3</v>
+      <c r="B11" s="6" t="s">
+        <v>780</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>775</v>
@@ -3639,7 +3645,7 @@
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -3687,7 +3693,7 @@
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -3735,7 +3741,7 @@
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -3783,7 +3789,7 @@
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -9961,7 +9967,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Kpp9D8N3dRixb7b7QEzQSoUM2mlXsGBv+KC6q3wd9ZscmCXN3bbiXJ8Z8wpUv9590DcJY4FqAmYIgWOdo8u5yg==" saltValue="icvpQfbgAMKqH78nWwWs+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0qI61pO1wrOyhyIRHfPeDjPYv9Q4jkczu4NV7RDifto0cT/R9jJjzsX4EGwPR+oeKUDanpbnl0YGQ96W0J3S3w==" saltValue="bsI3SASmjaax5CYf0uatIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -10209,8 +10215,8 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>2</v>
+      <c r="B10" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>774</v>
@@ -10227,8 +10233,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>3</v>
+      <c r="B11" s="6" t="s">
+        <v>780</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>775</v>
@@ -10246,7 +10252,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -10264,7 +10270,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -10282,7 +10288,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -10300,7 +10306,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -10317,7 +10323,7 @@
       <c r="M15" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hHxdEuT9DEXx3SdR5F4CORvqMQZO7OLyE4JH6WhTkONQ3ZSih+aNAh6GcQpKCGEYpNOBCn5L/F3Px+21XvnHxA==" saltValue="SnRU6e1NcZlyGBTwtvKogA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d3+T2wLS2o3aeZHsvIQNTiBHroJT4Kp1JbxtExhrSA0rIn3t54oKJCMHNuSRGEG/EHtYQr7grmntJyeE7GaTGA==" saltValue="YYQtK41tPO4bAP0R6GSMLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>

--- a/templates/NHWA_Module_5.xlsx
+++ b/templates/NHWA_Module_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20354"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\sfera\workspace\EST\NHWA-Excel-Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD9B8E-03AD-4C96-A72D-A9B929FC5BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA83F9E-ACA7-4D0A-8E59-7A34A7DA3A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D8NLvK0a2zIADanhZ9TwvH5vsYkmadwkU44pHflONSE2WP8HiyNEmpWYSjEZss1+UZ+xu9L5Oen+ioj0nOts3g==" workbookSaltValue="X5E0+xThdEGqXq8WVwCqrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="835">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -174,9 +174,6 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -708,9 +702,6 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
     <t>WXGcnQWJ0Qd</t>
   </si>
   <si>
@@ -1224,9 +1215,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>juBxu3AprlM</t>
   </si>
   <si>
@@ -1566,9 +1554,6 @@
     <t>TJK</t>
   </si>
   <si>
-    <t>The former Yugoslav republic of Macedonia</t>
-  </si>
-  <si>
     <t>cfBaKMnsXd1</t>
   </si>
   <si>
@@ -1593,9 +1578,6 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>United Kingdom of Great Britain and Northern Ireland</t>
-  </si>
-  <si>
     <t>Gnz4lqrVEMf</t>
   </si>
   <si>
@@ -1674,18 +1656,12 @@
     <t>CYM</t>
   </si>
   <si>
-    <t>China, Hong Kong Special Administrative Region</t>
-  </si>
-  <si>
     <t>myv7amOYTHn</t>
   </si>
   <si>
     <t>HKG</t>
   </si>
   <si>
-    <t>China, Macao Special Administrative Region</t>
-  </si>
-  <si>
     <t>y582ESg0Vjo</t>
   </si>
   <si>
@@ -1701,9 +1677,6 @@
     <t>XX1</t>
   </si>
   <si>
-    <t>Curacao</t>
-  </si>
-  <si>
     <t>QSpLidCdqMU</t>
   </si>
   <si>
@@ -1890,9 +1863,6 @@
     <t>MNP</t>
   </si>
   <si>
-    <t>Pitcairn Island</t>
-  </si>
-  <si>
     <t>fHaKXfcKthe</t>
   </si>
   <si>
@@ -1917,9 +1887,6 @@
     <t>XOD</t>
   </si>
   <si>
-    <t>Rï¿½union</t>
-  </si>
-  <si>
     <t>VwqhqUCaMgk</t>
   </si>
   <si>
@@ -2043,18 +2010,12 @@
     <t>XX9</t>
   </si>
   <si>
-    <t>Virgin Islands (USA)</t>
-  </si>
-  <si>
     <t>M9HrCkIwaKy</t>
   </si>
   <si>
     <t>VIR</t>
   </si>
   <si>
-    <t>Wallis and Futuna Islands</t>
-  </si>
-  <si>
     <t>eVp1pvRfPKS</t>
   </si>
   <si>
@@ -2077,9 +2038,6 @@
   </si>
   <si>
     <t>X13</t>
-  </si>
-  <si>
-    <t>nIMkfln6ItD</t>
   </si>
   <si>
     <t>BGD</t>
@@ -2378,6 +2336,210 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>dNLjKwsVjod</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>sg5v6c9tCZ3</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>PFAtPR87fHs</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>China, Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>China, Macao SAR</t>
+  </si>
+  <si>
+    <t>China, Province of Taiwan</t>
+  </si>
+  <si>
+    <t>lGN2n7pZ6Ua</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>XjHXb0aFH5w</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>AFIorEPU00q</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>BLpPqpMtgQY</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>NUkOvK4bnj2</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>apVWLKfARpb</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>jZOt27rWre8</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>ehNfKt5LpG9</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>XJscL6IuHpd</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>GPyOOoIby8R</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>tSBEjAHKj9V</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>z5ouOuycTPO</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>TWyMjVaaxmT</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>US Virgin Islands</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Irela</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>KOUhvjWIy6V</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza Strip</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>PvrMV4NjbtR</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Adzexk8xbzD</t>
+  </si>
+  <si>
+    <t>ALA</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2723,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2662,6 +2824,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3087,7 +3252,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB250"/>
+  <dimension ref="A1:CB266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -3104,17 +3269,16 @@
     <col min="8" max="9" width="12.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" style="4" customWidth="1"/>
     <col min="11" max="12" width="14.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="9.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12" style="4" customWidth="1"/>
     <col min="22" max="22" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="34" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="4" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="4"/>
+    <col min="24" max="35" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
@@ -3142,26 +3306,26 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="10" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -3190,16 +3354,16 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="4" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>200</v>
+        <v>368</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" ref="AE2:AE67" si="0">--ISNUMBER(IFERROR(SEARCH($X$1,AA2,1),""))</f>
@@ -3211,7 +3375,7 @@
       </c>
       <c r="AG2" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF2),$AF$2:$AF$250,0)),"")</f>
-        <v>Algeria</v>
+        <v>Afghanistan</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
@@ -3241,19 +3405,19 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>203</v>
+        <v>414</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>202</v>
+        <v>416</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE3:AE66" si="1">--ISNUMBER(IFERROR(SEARCH($X$1,AA3,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF3" s="4">
@@ -3262,7 +3426,7 @@
       </c>
       <c r="AG3" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF3),$AF$2:$AF$250,0)),"")</f>
-        <v>Angola</v>
+        <v>Albania</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,7 +3436,7 @@
       <c r="G4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="25" t="str">
+      <c r="H4" s="27" t="str">
         <f>IFERROR(VLOOKUP(X1,AA2:AD250,4,0),"")</f>
         <v/>
       </c>
@@ -3281,19 +3445,19 @@
       </c>
       <c r="K4" s="25"/>
       <c r="AA4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF4" s="4">
@@ -3302,7 +3466,7 @@
       </c>
       <c r="AG4" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF4),$AF$2:$AF$250,0)),"")</f>
-        <v>Benin</v>
+        <v>Algeria</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
@@ -3326,19 +3490,19 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="AA5" s="4" t="s">
-        <v>16</v>
+        <v>521</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>206</v>
+        <v>522</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>207</v>
+        <v>523</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>202</v>
+        <v>695</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF5" s="4">
@@ -3347,7 +3511,7 @@
       </c>
       <c r="AG5" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF5),$AF$2:$AF$250,0)),"")</f>
-        <v>Botswana</v>
+        <v>American Samoa</v>
       </c>
     </row>
     <row r="6" spans="2:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3359,19 +3523,19 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="AA6" s="4" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>209</v>
+        <v>418</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>202</v>
+        <v>416</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF6" s="4">
@@ -3380,7 +3544,7 @@
       </c>
       <c r="AG6" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF6),$AF$2:$AF$250,0)),"")</f>
-        <v>Burkina Faso</v>
+        <v>Andorra</v>
       </c>
     </row>
     <row r="7" spans="2:33" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,27 +3552,27 @@
         <v>9</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="32" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="32" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="L7" s="35"/>
       <c r="P7" s="15"/>
@@ -3419,19 +3583,19 @@
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="AA7" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF7" s="4">
@@ -3440,7 +3604,7 @@
       </c>
       <c r="AG7" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF7),$AF$2:$AF$250,0)),"")</f>
-        <v>Burundi</v>
+        <v>Angola</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
@@ -3474,20 +3638,20 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
-      <c r="AA8" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>202</v>
+      <c r="AA8" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC8" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AD8" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF8" s="4">
@@ -3496,7 +3660,7 @@
       </c>
       <c r="AG8" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF8),$AF$2:$AF$250,0)),"")</f>
-        <v>Cabo Verde</v>
+        <v>Anguilla</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
@@ -3522,20 +3686,20 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
-      <c r="AA9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>202</v>
+      <c r="AA9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD9" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF9" s="4">
@@ -3544,15 +3708,15 @@
       </c>
       <c r="AG9" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF9),$AF$2:$AF$250,0)),"")</f>
-        <v>Cameroon</v>
+        <v>Antigua and Barbuda</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3570,20 +3734,20 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
-      <c r="AA10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>202</v>
+      <c r="AA10" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC10" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD10" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF10" s="4">
@@ -3592,15 +3756,15 @@
       </c>
       <c r="AG10" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF10),$AF$2:$AF$250,0)),"")</f>
-        <v>Central African Republic</v>
+        <v>Argentina</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -3618,20 +3782,20 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="AA11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>202</v>
+      <c r="AA11" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC11" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD11" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF11" s="4">
@@ -3640,7 +3804,7 @@
       </c>
       <c r="AG11" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF11),$AF$2:$AF$250,0)),"")</f>
-        <v>Chad</v>
+        <v>Armenia</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
@@ -3666,20 +3830,20 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="AA12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>202</v>
+      <c r="AA12" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB12" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD12" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF12" s="4">
@@ -3688,7 +3852,7 @@
       </c>
       <c r="AG12" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF12),$AF$2:$AF$250,0)),"")</f>
-        <v>Comoros</v>
+        <v>Aruba</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
@@ -3714,20 +3878,20 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="AA13" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>202</v>
+      <c r="AA13" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB13" s="37" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC13" s="37" t="s">
+        <v>694</v>
+      </c>
+      <c r="AD13" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF13" s="4">
@@ -3736,7 +3900,7 @@
       </c>
       <c r="AG13" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF13),$AF$2:$AF$250,0)),"")</f>
-        <v>Congo</v>
+        <v>Australia</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
@@ -3762,20 +3926,20 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
-      <c r="AA14" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>202</v>
+      <c r="AA14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB14" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC14" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD14" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF14" s="4">
@@ -3784,7 +3948,7 @@
       </c>
       <c r="AG14" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF14),$AF$2:$AF$250,0)),"")</f>
-        <v>Cote d'Ivoire</v>
+        <v>Austria</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
@@ -3810,20 +3974,20 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="AA15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>202</v>
+      <c r="AA15" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB15" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC15" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD15" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF15" s="4">
@@ -3832,24 +3996,24 @@
       </c>
       <c r="AG15" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF15),$AF$2:$AF$250,0)),"")</f>
-        <v>Democratic Republic of the Congo</v>
+        <v>Azerbaijan</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="AA16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>202</v>
+      <c r="AA16" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB16" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC16" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD16" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF16" s="4">
@@ -3858,24 +4022,24 @@
       </c>
       <c r="AG16" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF16),$AF$2:$AF$250,0)),"")</f>
-        <v>Equatorial Guinea</v>
+        <v>Bahamas</v>
       </c>
     </row>
     <row r="17" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>202</v>
+      <c r="AA17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB17" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC17" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD17" s="37" t="s">
+        <v>370</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF17" s="4">
@@ -3884,24 +4048,24 @@
       </c>
       <c r="AG17" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF17),$AF$2:$AF$250,0)),"")</f>
-        <v>Eritrea</v>
+        <v>Bahrain</v>
       </c>
     </row>
     <row r="18" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>202</v>
+      <c r="AA18" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB18" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="AC18" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD18" s="37" t="s">
+        <v>672</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF18" s="4">
@@ -3910,24 +4074,24 @@
       </c>
       <c r="AG18" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF18),$AF$2:$AF$250,0)),"")</f>
-        <v>Ethiopia</v>
+        <v>Bangladesh</v>
       </c>
     </row>
     <row r="19" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>202</v>
+      <c r="AA19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC19" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD19" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF19" s="4">
@@ -3936,24 +4100,24 @@
       </c>
       <c r="AG19" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF19),$AF$2:$AF$250,0)),"")</f>
-        <v>Gabon</v>
+        <v>Barbados</v>
       </c>
     </row>
     <row r="20" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>202</v>
+      <c r="AA20" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB20" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC20" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD20" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF20" s="4">
@@ -3962,24 +4126,24 @@
       </c>
       <c r="AG20" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF20),$AF$2:$AF$250,0)),"")</f>
-        <v>Gambia</v>
+        <v>Belarus</v>
       </c>
     </row>
     <row r="21" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>202</v>
+      <c r="AA21" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB21" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC21" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD21" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF21" s="4">
@@ -3988,24 +4152,24 @@
       </c>
       <c r="AG21" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF21),$AF$2:$AF$250,0)),"")</f>
-        <v>Ghana</v>
+        <v>Belgium</v>
       </c>
     </row>
     <row r="22" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>202</v>
+      <c r="AA22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB22" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC22" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD22" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF22" s="4">
@@ -4014,24 +4178,24 @@
       </c>
       <c r="AG22" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF22),$AF$2:$AF$250,0)),"")</f>
-        <v>Guinea</v>
+        <v>Belize</v>
       </c>
     </row>
     <row r="23" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>202</v>
+      <c r="AA23" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD23" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF23" s="4">
@@ -4040,24 +4204,24 @@
       </c>
       <c r="AG23" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF23),$AF$2:$AF$250,0)),"")</f>
-        <v>Guinea-Bissau</v>
+        <v>Benin</v>
       </c>
     </row>
     <row r="24" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>202</v>
+      <c r="AA24" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB24" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC24" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD24" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF24" s="4">
@@ -4066,24 +4230,24 @@
       </c>
       <c r="AG24" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF24),$AF$2:$AF$250,0)),"")</f>
-        <v>Kenya</v>
+        <v>Bermuda</v>
       </c>
     </row>
     <row r="25" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>202</v>
+      <c r="AA25" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB25" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC25" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD25" s="37" t="s">
+        <v>672</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF25" s="4">
@@ -4092,24 +4256,24 @@
       </c>
       <c r="AG25" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF25),$AF$2:$AF$250,0)),"")</f>
-        <v>Lesotho</v>
+        <v>Bhutan</v>
       </c>
     </row>
     <row r="26" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB26" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>202</v>
+      <c r="AA26" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB26" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC26" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD26" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF26" s="4">
@@ -4118,24 +4282,24 @@
       </c>
       <c r="AG26" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF26),$AF$2:$AF$250,0)),"")</f>
-        <v>Liberia</v>
+        <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
     <row r="27" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD27" s="4" t="s">
-        <v>202</v>
+      <c r="AA27" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB27" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC27" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD27" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF27" s="4">
@@ -4144,24 +4308,24 @@
       </c>
       <c r="AG27" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF27),$AF$2:$AF$250,0)),"")</f>
-        <v>Madagascar</v>
+        <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
     <row r="28" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB28" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC28" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>202</v>
+      <c r="AA28" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB28" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC28" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD28" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF28" s="4">
@@ -4170,24 +4334,24 @@
       </c>
       <c r="AG28" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF28),$AF$2:$AF$250,0)),"")</f>
-        <v>Malawi</v>
+        <v>Bosnia and Herzegovina</v>
       </c>
     </row>
     <row r="29" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>202</v>
+      <c r="AA29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB29" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC29" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD29" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF29" s="4">
@@ -4196,24 +4360,24 @@
       </c>
       <c r="AG29" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF29),$AF$2:$AF$250,0)),"")</f>
-        <v>Mali</v>
+        <v>Botswana</v>
       </c>
     </row>
     <row r="30" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD30" s="4" t="s">
-        <v>202</v>
+      <c r="AA30" s="37" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB30" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC30" s="37" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD30" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF30" s="4">
@@ -4222,24 +4386,24 @@
       </c>
       <c r="AG30" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF30),$AF$2:$AF$250,0)),"")</f>
-        <v>Mauritania</v>
+        <v>Bouvet Island</v>
       </c>
     </row>
     <row r="31" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>202</v>
+      <c r="AA31" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB31" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC31" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD31" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF31" s="4">
@@ -4248,24 +4412,24 @@
       </c>
       <c r="AG31" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF31),$AF$2:$AF$250,0)),"")</f>
-        <v>Mauritius</v>
+        <v>Brazil</v>
       </c>
     </row>
     <row r="32" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD32" s="4" t="s">
-        <v>202</v>
+      <c r="AA32" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB32" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="AC32" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD32" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF32" s="4">
@@ -4274,24 +4438,24 @@
       </c>
       <c r="AG32" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF32),$AF$2:$AF$250,0)),"")</f>
-        <v>Mozambique</v>
+        <v>British Indian Ocean Territory</v>
       </c>
     </row>
     <row r="33" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB33" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC33" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD33" s="4" t="s">
-        <v>202</v>
+      <c r="AA33" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB33" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC33" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD33" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF33" s="4">
@@ -4300,24 +4464,24 @@
       </c>
       <c r="AG33" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF33),$AF$2:$AF$250,0)),"")</f>
-        <v>Namibia</v>
+        <v>British Virgin Islands</v>
       </c>
     </row>
     <row r="34" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD34" s="4" t="s">
-        <v>202</v>
+      <c r="AA34" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB34" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC34" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="AD34" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="AE34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF34" s="4">
@@ -4326,24 +4490,24 @@
       </c>
       <c r="AG34" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF34),$AF$2:$AF$250,0)),"")</f>
-        <v>Niger</v>
+        <v>Brunei Darussalam</v>
       </c>
     </row>
     <row r="35" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD35" s="4" t="s">
-        <v>202</v>
+      <c r="AA35" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB35" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC35" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD35" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF35" s="4">
@@ -4352,24 +4516,24 @@
       </c>
       <c r="AG35" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF35),$AF$2:$AF$250,0)),"")</f>
-        <v>Nigeria</v>
+        <v>Bulgaria</v>
       </c>
     </row>
     <row r="36" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB36" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC36" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>202</v>
+      <c r="AA36" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB36" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC36" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD36" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF36" s="4">
@@ -4378,24 +4542,24 @@
       </c>
       <c r="AG36" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF36),$AF$2:$AF$250,0)),"")</f>
-        <v>Rwanda</v>
+        <v>Burkina Faso</v>
       </c>
     </row>
     <row r="37" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB37" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD37" s="4" t="s">
-        <v>202</v>
+      <c r="AA37" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB37" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC37" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD37" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF37" s="4">
@@ -4404,24 +4568,24 @@
       </c>
       <c r="AG37" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF37),$AF$2:$AF$250,0)),"")</f>
-        <v>Sao Tome and Principe</v>
+        <v>Burundi</v>
       </c>
     </row>
     <row r="38" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB38" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC38" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD38" s="4" t="s">
-        <v>202</v>
+      <c r="AA38" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB38" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC38" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD38" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF38" s="4">
@@ -4430,24 +4594,24 @@
       </c>
       <c r="AG38" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF38),$AF$2:$AF$250,0)),"")</f>
-        <v>Senegal</v>
+        <v>Cabo Verde</v>
       </c>
     </row>
     <row r="39" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB39" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD39" s="4" t="s">
-        <v>202</v>
+      <c r="AA39" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB39" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC39" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="AD39" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF39" s="4">
@@ -4456,24 +4620,24 @@
       </c>
       <c r="AG39" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF39),$AF$2:$AF$250,0)),"")</f>
-        <v>Seychelles</v>
+        <v>Cambodia</v>
       </c>
     </row>
     <row r="40" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB40" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC40" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD40" s="4" t="s">
-        <v>202</v>
+      <c r="AA40" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB40" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC40" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD40" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF40" s="4">
@@ -4482,24 +4646,24 @@
       </c>
       <c r="AG40" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF40),$AF$2:$AF$250,0)),"")</f>
-        <v>Sierra Leone</v>
+        <v>Cameroon</v>
       </c>
     </row>
     <row r="41" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB41" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD41" s="4" t="s">
-        <v>202</v>
+      <c r="AA41" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB41" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC41" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD41" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF41" s="4">
@@ -4508,24 +4672,24 @@
       </c>
       <c r="AG41" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF41),$AF$2:$AF$250,0)),"")</f>
-        <v>South Africa</v>
+        <v>Canada</v>
       </c>
     </row>
     <row r="42" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA42" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB42" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC42" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD42" s="4" t="s">
-        <v>202</v>
+      <c r="AA42" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB42" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC42" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD42" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF42" s="4">
@@ -4534,24 +4698,24 @@
       </c>
       <c r="AG42" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF42),$AF$2:$AF$250,0)),"")</f>
-        <v>South Sudan</v>
+        <v>Cayman Islands</v>
       </c>
     </row>
     <row r="43" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB43" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC43" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD43" s="4" t="s">
-        <v>202</v>
+      <c r="AA43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB43" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC43" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD43" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF43" s="4">
@@ -4560,24 +4724,24 @@
       </c>
       <c r="AG43" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF43),$AF$2:$AF$250,0)),"")</f>
-        <v>Swaziland</v>
+        <v>Central African Republic</v>
       </c>
     </row>
     <row r="44" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB44" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC44" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>202</v>
+      <c r="AA44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB44" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC44" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD44" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF44" s="4">
@@ -4586,24 +4750,24 @@
       </c>
       <c r="AG44" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF44),$AF$2:$AF$250,0)),"")</f>
-        <v>Togo</v>
+        <v>Chad</v>
       </c>
     </row>
     <row r="45" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB45" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD45" s="4" t="s">
-        <v>202</v>
+      <c r="AA45" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB45" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC45" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD45" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF45" s="4">
@@ -4612,24 +4776,24 @@
       </c>
       <c r="AG45" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF45),$AF$2:$AF$250,0)),"")</f>
-        <v>Uganda</v>
+        <v>Chile</v>
       </c>
     </row>
     <row r="46" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB46" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC46" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD46" s="4" t="s">
-        <v>202</v>
+      <c r="AA46" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB46" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="AC46" s="37" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD46" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="AE46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF46" s="4">
@@ -4638,24 +4802,24 @@
       </c>
       <c r="AG46" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF46),$AF$2:$AF$250,0)),"")</f>
-        <v>United Republic of Tanzania</v>
+        <v>China</v>
       </c>
     </row>
     <row r="47" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB47" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD47" s="4" t="s">
-        <v>202</v>
+      <c r="AA47" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB47" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC47" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD47" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF47" s="4">
@@ -4664,24 +4828,24 @@
       </c>
       <c r="AG47" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF47),$AF$2:$AF$250,0)),"")</f>
-        <v>Zambia</v>
+        <v>China, Hong Kong SAR</v>
       </c>
     </row>
     <row r="48" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB48" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC48" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>202</v>
+      <c r="AA48" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB48" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC48" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD48" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="AE48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF48" s="4">
@@ -4690,24 +4854,24 @@
       </c>
       <c r="AG48" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF48),$AF$2:$AF$250,0)),"")</f>
-        <v>Zimbabwe</v>
+        <v>China, Macao SAR</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB49" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC49" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD49" s="4" t="s">
-        <v>301</v>
+      <c r="AA49" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB49" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC49" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD49" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF49" s="4">
@@ -4716,24 +4880,24 @@
       </c>
       <c r="AG49" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF49),$AF$2:$AF$250,0)),"")</f>
-        <v>Antigua and Barbuda</v>
+        <v>China, Province of Taiwan</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB50" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC50" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD50" s="4" t="s">
-        <v>301</v>
+      <c r="AA50" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB50" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC50" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD50" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF50" s="4">
@@ -4742,24 +4906,24 @@
       </c>
       <c r="AG50" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF50),$AF$2:$AF$250,0)),"")</f>
-        <v>Argentina</v>
+        <v>China: Province of Taiwan only</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA51" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB51" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC51" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD51" s="4" t="s">
-        <v>301</v>
+      <c r="AA51" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB51" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC51" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD51" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF51" s="4">
@@ -4768,24 +4932,24 @@
       </c>
       <c r="AG51" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF51),$AF$2:$AF$250,0)),"")</f>
-        <v>Bahamas</v>
+        <v>Christmas Island</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB52" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC52" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD52" s="4" t="s">
-        <v>301</v>
+      <c r="AA52" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB52" s="37" t="s">
+        <v>783</v>
+      </c>
+      <c r="AC52" s="37" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD52" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF52" s="4">
@@ -4794,24 +4958,24 @@
       </c>
       <c r="AG52" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF52),$AF$2:$AF$250,0)),"")</f>
-        <v>Barbados</v>
+        <v>Cocos (Keeling) Islands</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB53" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC53" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD53" s="4" t="s">
-        <v>301</v>
+      <c r="AA53" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB53" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC53" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD53" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF53" s="4">
@@ -4820,24 +4984,24 @@
       </c>
       <c r="AG53" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF53),$AF$2:$AF$250,0)),"")</f>
-        <v>Belize</v>
+        <v>Colombia</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB54" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC54" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD54" s="4" t="s">
-        <v>301</v>
+      <c r="AA54" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB54" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC54" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD54" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF54" s="4">
@@ -4846,7 +5010,59 @@
       </c>
       <c r="AG54" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF54),$AF$2:$AF$250,0)),"")</f>
-        <v>Bolivia (Plurinational State of)</v>
+        <v>Comoros</v>
+      </c>
+    </row>
+    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="AA55" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB55" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC55" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD55" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE55" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF55" s="4">
+        <f>IF(AE55=1,COUNTIF($AE$2:AE55,1),"")</f>
+        <v>54</v>
+      </c>
+      <c r="AG55" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF55),$AF$2:$AF$250,0)),"")</f>
+        <v>Congo</v>
+      </c>
+    </row>
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="AA56" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB56" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC56" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD56" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE56" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF56" s="4">
+        <f>IF(AE56=1,COUNTIF($AE$2:AE56,1),"")</f>
+        <v>55</v>
+      </c>
+      <c r="AG56" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF56),$AF$2:$AF$250,0)),"")</f>
+        <v>Cook Islands</v>
       </c>
     </row>
     <row r="57" spans="1:80" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4876,29 +5092,29 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
-      <c r="AA57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB57" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD57" s="4" t="s">
-        <v>301</v>
+      <c r="AA57" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB57" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC57" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD57" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF57" s="4">
         <f>IF(AE57=1,COUNTIF($AE$2:AE57,1),"")</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AG57" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF57),$AF$2:$AF$250,0)),"")</f>
-        <v>Chile</v>
+        <v>Costa Rica</v>
       </c>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
@@ -4949,3587 +5165,3587 @@
       <c r="CB57" s="4"/>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB58" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC58" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD58" s="4" t="s">
-        <v>301</v>
+      <c r="AA58" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB58" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC58" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD58" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF58" s="4">
         <f>IF(AE58=1,COUNTIF($AE$2:AE58,1),"")</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AG58" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF58),$AF$2:$AF$250,0)),"")</f>
-        <v>Colombia</v>
+        <v>Croatia</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB59" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC59" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="AD59" s="4" t="s">
-        <v>301</v>
+      <c r="AA59" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB59" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC59" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD59" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF59" s="4">
         <f>IF(AE59=1,COUNTIF($AE$2:AE59,1),"")</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG59" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF59),$AF$2:$AF$250,0)),"")</f>
-        <v>Costa Rica</v>
+        <v>Cuba</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB60" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD60" s="4" t="s">
-        <v>301</v>
+      <c r="AA60" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB60" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC60" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD60" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="AE60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF60" s="4">
         <f>IF(AE60=1,COUNTIF($AE$2:AE60,1),"")</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AG60" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF60),$AF$2:$AF$250,0)),"")</f>
-        <v>Cuba</v>
+        <v>Curaçao</v>
       </c>
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB61" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC61" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD61" s="4" t="s">
-        <v>301</v>
+      <c r="AA61" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB61" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC61" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD61" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF61" s="4">
         <f>IF(AE61=1,COUNTIF($AE$2:AE61,1),"")</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG61" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF61),$AF$2:$AF$250,0)),"")</f>
-        <v>Dominica</v>
+        <v>Cyprus</v>
       </c>
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA62" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB62" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC62" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD62" s="4" t="s">
-        <v>301</v>
+      <c r="AA62" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="AB62" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC62" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD62" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF62" s="4">
         <f>IF(AE62=1,COUNTIF($AE$2:AE62,1),"")</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG62" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF62),$AF$2:$AF$250,0)),"")</f>
-        <v>Dominican Republic</v>
+        <v>Czechia</v>
       </c>
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB63" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC63" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD63" s="4" t="s">
-        <v>301</v>
+      <c r="AA63" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB63" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC63" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD63" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="AE63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF63" s="4">
         <f>IF(AE63=1,COUNTIF($AE$2:AE63,1),"")</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG63" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF63),$AF$2:$AF$250,0)),"")</f>
-        <v>Ecuador</v>
+        <v>Czechoslovakia, Former</v>
       </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AA64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB64" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC64" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD64" s="4" t="s">
-        <v>301</v>
+      <c r="AA64" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB64" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC64" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD64" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF64" s="4">
         <f>IF(AE64=1,COUNTIF($AE$2:AE64,1),"")</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AG64" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF64),$AF$2:$AF$250,0)),"")</f>
-        <v>El Salvador</v>
+        <v>Côte d'Ivoire</v>
       </c>
     </row>
     <row r="65" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB65" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC65" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD65" s="4" t="s">
-        <v>301</v>
+      <c r="AA65" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB65" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="AC65" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD65" s="37" t="s">
+        <v>672</v>
       </c>
       <c r="AE65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF65" s="4">
         <f>IF(AE65=1,COUNTIF($AE$2:AE65,1),"")</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG65" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF65),$AF$2:$AF$250,0)),"")</f>
-        <v>Grenada</v>
+        <v>Democratic People's Republic of Korea</v>
       </c>
     </row>
     <row r="66" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB66" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC66" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD66" s="4" t="s">
-        <v>301</v>
+      <c r="AA66" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB66" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC66" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD66" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF66" s="4">
         <f>IF(AE66=1,COUNTIF($AE$2:AE66,1),"")</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG66" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF66),$AF$2:$AF$250,0)),"")</f>
-        <v>Guatemala</v>
+        <v>Democratic Republic of the Congo</v>
       </c>
     </row>
     <row r="67" spans="27:33" x14ac:dyDescent="0.25">
-      <c r="AA67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB67" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC67" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD67" s="4" t="s">
-        <v>301</v>
+      <c r="AA67" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB67" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC67" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD67" s="37" t="s">
+        <v>416</v>
       </c>
       <c r="AE67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE67:AE130" si="2">--ISNUMBER(IFERROR(SEARCH($X$1,AA67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF67" s="4">
         <f>IF(AE67=1,COUNTIF($AE$2:AE67,1),"")</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG67" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF67),$AF$2:$AF$250,0)),"")</f>
-        <v>Guyana</v>
+        <v>Denmark</v>
       </c>
     </row>
     <row r="68" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA68" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB68" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="AC68" s="4" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AD68" s="4" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="AE68" s="4">
-        <f t="shared" ref="AE68:AE131" si="1">--ISNUMBER(IFERROR(SEARCH($X$1,AA68,1),""))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF68" s="4">
         <f>IF(AE68=1,COUNTIF($AE$2:AE68,1),"")</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG68" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF68),$AF$2:$AF$250,0)),"")</f>
-        <v>Haiti</v>
+        <v>Djibouti</v>
       </c>
     </row>
     <row r="69" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA69" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AB69" s="4" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AC69" s="4" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AD69" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AE69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF69" s="4">
         <f>IF(AE69=1,COUNTIF($AE$2:AE69,1),"")</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG69" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF69),$AF$2:$AF$250,0)),"")</f>
-        <v>Honduras</v>
+        <v>Dominica</v>
       </c>
     </row>
     <row r="70" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA70" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AB70" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AC70" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AD70" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AE70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF70" s="4">
         <f>IF(AE70=1,COUNTIF($AE$2:AE70,1),"")</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG70" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF70),$AF$2:$AF$250,0)),"")</f>
-        <v>Jamaica</v>
+        <v>Dominican Republic</v>
       </c>
     </row>
     <row r="71" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA71" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AB71" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AC71" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AD71" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AE71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF71" s="4">
         <f>IF(AE71=1,COUNTIF($AE$2:AE71,1),"")</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG71" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF71),$AF$2:$AF$250,0)),"")</f>
-        <v>Mexico</v>
+        <v>Ecuador</v>
       </c>
     </row>
     <row r="72" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA72" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="AC72" s="4" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="AD72" s="4" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="AE72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF72" s="4">
         <f>IF(AE72=1,COUNTIF($AE$2:AE72,1),"")</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG72" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF72),$AF$2:$AF$250,0)),"")</f>
-        <v>Nicaragua</v>
+        <v>Egypt</v>
       </c>
     </row>
     <row r="73" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA73" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AB73" s="4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AC73" s="4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AD73" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AE73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF73" s="4">
         <f>IF(AE73=1,COUNTIF($AE$2:AE73,1),"")</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG73" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF73),$AF$2:$AF$250,0)),"")</f>
-        <v>Panama</v>
+        <v>El Salvador</v>
       </c>
     </row>
     <row r="74" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA74" s="4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="AB74" s="4" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="AC74" s="4" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="AD74" s="4" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF74" s="4">
         <f>IF(AE74=1,COUNTIF($AE$2:AE74,1),"")</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG74" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF74),$AF$2:$AF$250,0)),"")</f>
-        <v>Paraguay</v>
+        <v>Equatorial Guinea</v>
       </c>
     </row>
     <row r="75" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA75" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="AB75" s="4" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="AC75" s="4" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="AD75" s="4" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AE75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF75" s="4">
         <f>IF(AE75=1,COUNTIF($AE$2:AE75,1),"")</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG75" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF75),$AF$2:$AF$250,0)),"")</f>
-        <v>Peru</v>
+        <v>Eritrea</v>
       </c>
     </row>
     <row r="76" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA76" s="4" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AB76" s="4" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="AC76" s="4" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="AD76" s="4" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="AE76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF76" s="4">
         <f>IF(AE76=1,COUNTIF($AE$2:AE76,1),"")</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG76" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF76),$AF$2:$AF$250,0)),"")</f>
-        <v>Saint Kitts and Nevis</v>
+        <v>Estonia</v>
       </c>
     </row>
     <row r="77" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA77" s="4" t="s">
-        <v>80</v>
+        <v>788</v>
       </c>
       <c r="AB77" s="4" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="AC77" s="4" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="AD77" s="4" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AE77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF77" s="4">
         <f>IF(AE77=1,COUNTIF($AE$2:AE77,1),"")</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG77" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF77),$AF$2:$AF$250,0)),"")</f>
-        <v>Saint Lucia</v>
+        <v>Eswatini</v>
       </c>
     </row>
     <row r="78" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA78" s="4" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="AB78" s="4" t="s">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="AC78" s="4" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="AD78" s="4" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AE78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF78" s="4">
         <f>IF(AE78=1,COUNTIF($AE$2:AE78,1),"")</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG78" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF78),$AF$2:$AF$250,0)),"")</f>
-        <v>Saint Vincent and the Grenadines</v>
+        <v>Ethiopia</v>
       </c>
     </row>
     <row r="79" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA79" s="4" t="s">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AB79" s="4" t="s">
-        <v>357</v>
+        <v>556</v>
       </c>
       <c r="AC79" s="4" t="s">
-        <v>358</v>
+        <v>557</v>
       </c>
       <c r="AD79" s="4" t="s">
-        <v>301</v>
+        <v>524</v>
       </c>
       <c r="AE79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF79" s="4">
         <f>IF(AE79=1,COUNTIF($AE$2:AE79,1),"")</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG79" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF79),$AF$2:$AF$250,0)),"")</f>
-        <v>Suriname</v>
+        <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
     <row r="80" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA80" s="4" t="s">
-        <v>83</v>
+        <v>558</v>
       </c>
       <c r="AB80" s="4" t="s">
-        <v>359</v>
+        <v>559</v>
       </c>
       <c r="AC80" s="4" t="s">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="AD80" s="4" t="s">
-        <v>301</v>
+        <v>524</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF80" s="4">
         <f>IF(AE80=1,COUNTIF($AE$2:AE80,1),"")</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AG80" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF80),$AF$2:$AF$250,0)),"")</f>
-        <v>Trinidad and Tobago</v>
+        <v>Faroe Islands</v>
       </c>
     </row>
     <row r="81" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA81" s="4" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="AB81" s="4" t="s">
-        <v>361</v>
+        <v>705</v>
       </c>
       <c r="AC81" s="4" t="s">
-        <v>362</v>
+        <v>706</v>
       </c>
       <c r="AD81" s="4" t="s">
-        <v>301</v>
+        <v>695</v>
       </c>
       <c r="AE81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF81" s="4">
         <f>IF(AE81=1,COUNTIF($AE$2:AE81,1),"")</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AG81" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF81),$AF$2:$AF$250,0)),"")</f>
-        <v>United States of America</v>
+        <v>Fiji</v>
       </c>
     </row>
     <row r="82" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA82" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="AB82" s="4" t="s">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="AC82" s="4" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="AD82" s="4" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="AE82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF82" s="4">
         <f>IF(AE82=1,COUNTIF($AE$2:AE82,1),"")</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG82" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF82),$AF$2:$AF$250,0)),"")</f>
-        <v>Uruguay</v>
+        <v>Finland</v>
       </c>
     </row>
     <row r="83" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA83" s="4" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="AB83" s="4" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="AC83" s="4" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="AD83" s="4" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="AE83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF83" s="4">
         <f>IF(AE83=1,COUNTIF($AE$2:AE83,1),"")</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG83" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF83),$AF$2:$AF$250,0)),"")</f>
-        <v>Venezuela (Bolivarian Republic of)</v>
+        <v>France</v>
       </c>
     </row>
     <row r="84" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA84" s="4" t="s">
-        <v>87</v>
+        <v>561</v>
       </c>
       <c r="AB84" s="4" t="s">
-        <v>367</v>
+        <v>562</v>
       </c>
       <c r="AC84" s="4" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="AD84" s="4" t="s">
-        <v>301</v>
+        <v>524</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF84" s="4">
         <f>IF(AE84=1,COUNTIF($AE$2:AE84,1),"")</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG84" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF84),$AF$2:$AF$250,0)),"")</f>
-        <v>Afghanistan</v>
+        <v>French Guiana</v>
       </c>
     </row>
     <row r="85" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA85" s="4" t="s">
-        <v>88</v>
+        <v>564</v>
       </c>
       <c r="AB85" s="4" t="s">
-        <v>369</v>
+        <v>565</v>
       </c>
       <c r="AC85" s="4" t="s">
-        <v>370</v>
+        <v>566</v>
       </c>
       <c r="AD85" s="4" t="s">
-        <v>301</v>
+        <v>695</v>
       </c>
       <c r="AE85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF85" s="4">
         <f>IF(AE85=1,COUNTIF($AE$2:AE85,1),"")</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG85" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF85),$AF$2:$AF$250,0)),"")</f>
-        <v>Bahrain</v>
+        <v>French Polynesia</v>
       </c>
     </row>
     <row r="86" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA86" s="4" t="s">
-        <v>89</v>
+        <v>789</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>371</v>
+        <v>790</v>
       </c>
       <c r="AC86" s="4" t="s">
-        <v>372</v>
+        <v>791</v>
       </c>
       <c r="AD86" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF86" s="4">
         <f>IF(AE86=1,COUNTIF($AE$2:AE86,1),"")</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AG86" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF86),$AF$2:$AF$250,0)),"")</f>
-        <v>Djibouti</v>
+        <v>French Southern Territories</v>
       </c>
     </row>
     <row r="87" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA87" s="4" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AB87" s="4" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="AC87" s="4" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="AD87" s="4" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="AE87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF87" s="4">
         <f>IF(AE87=1,COUNTIF($AE$2:AE87,1),"")</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG87" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF87),$AF$2:$AF$250,0)),"")</f>
-        <v>Egypt</v>
+        <v>Gabon</v>
       </c>
     </row>
     <row r="88" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA88" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AB88" s="4" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="AC88" s="4" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="AD88" s="4" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="AE88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF88" s="4">
         <f>IF(AE88=1,COUNTIF($AE$2:AE88,1),"")</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG88" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF88),$AF$2:$AF$250,0)),"")</f>
-        <v>Iran (Islamic Republic of)</v>
+        <v>Gambia</v>
       </c>
     </row>
     <row r="89" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA89" s="4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="AB89" s="4" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="AD89" s="4" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="AE89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF89" s="4">
         <f>IF(AE89=1,COUNTIF($AE$2:AE89,1),"")</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG89" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF89),$AF$2:$AF$250,0)),"")</f>
-        <v>Iraq</v>
+        <v>Georgia</v>
       </c>
     </row>
     <row r="90" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA90" s="4" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AB90" s="4" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="AC90" s="4" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="AD90" s="4" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="AE90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF90" s="4">
         <f>IF(AE90=1,COUNTIF($AE$2:AE90,1),"")</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG90" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF90),$AF$2:$AF$250,0)),"")</f>
-        <v>Jordan</v>
+        <v>Germany</v>
       </c>
     </row>
     <row r="91" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA91" s="4" t="s">
-        <v>94</v>
+        <v>567</v>
       </c>
       <c r="AB91" s="4" t="s">
-        <v>382</v>
+        <v>568</v>
       </c>
       <c r="AC91" s="4" t="s">
-        <v>383</v>
+        <v>569</v>
       </c>
       <c r="AD91" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF91" s="4">
         <f>IF(AE91=1,COUNTIF($AE$2:AE91,1),"")</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG91" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF91),$AF$2:$AF$250,0)),"")</f>
-        <v>Kuwait</v>
+        <v>Germany, Former Democratic Republic</v>
       </c>
     </row>
     <row r="92" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA92" s="4" t="s">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="AB92" s="4" t="s">
-        <v>384</v>
+        <v>571</v>
       </c>
       <c r="AC92" s="4" t="s">
-        <v>385</v>
+        <v>572</v>
       </c>
       <c r="AD92" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF92" s="4">
         <f>IF(AE92=1,COUNTIF($AE$2:AE92,1),"")</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG92" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF92),$AF$2:$AF$250,0)),"")</f>
-        <v>Lebanon</v>
+        <v>Germany, Former Federal Republic</v>
       </c>
     </row>
     <row r="93" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA93" s="4" t="s">
-        <v>96</v>
+        <v>573</v>
       </c>
       <c r="AB93" s="4" t="s">
-        <v>386</v>
+        <v>574</v>
       </c>
       <c r="AC93" s="4" t="s">
-        <v>387</v>
+        <v>575</v>
       </c>
       <c r="AD93" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF93" s="4">
         <f>IF(AE93=1,COUNTIF($AE$2:AE93,1),"")</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG93" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF93),$AF$2:$AF$250,0)),"")</f>
-        <v>Libya</v>
+        <v>Germany, West Berlin</v>
       </c>
     </row>
     <row r="94" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA94" s="4" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="AB94" s="4" t="s">
-        <v>388</v>
+        <v>239</v>
       </c>
       <c r="AC94" s="4" t="s">
-        <v>389</v>
+        <v>240</v>
       </c>
       <c r="AD94" s="4" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="AE94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF94" s="4">
         <f>IF(AE94=1,COUNTIF($AE$2:AE94,1),"")</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG94" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF94),$AF$2:$AF$250,0)),"")</f>
-        <v>Morocco</v>
+        <v>Ghana</v>
       </c>
     </row>
     <row r="95" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA95" s="4" t="s">
-        <v>390</v>
+        <v>576</v>
       </c>
       <c r="AB95" s="4" t="s">
-        <v>391</v>
+        <v>577</v>
       </c>
       <c r="AC95" s="4" t="s">
-        <v>392</v>
+        <v>578</v>
       </c>
       <c r="AD95" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF95" s="4">
         <f>IF(AE95=1,COUNTIF($AE$2:AE95,1),"")</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG95" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF95),$AF$2:$AF$250,0)),"")</f>
-        <v>Oman</v>
+        <v>Gibraltar</v>
       </c>
     </row>
     <row r="96" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA96" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AB96" s="4" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="AC96" s="4" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="AD96" s="4" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="AE96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF96" s="4">
         <f>IF(AE96=1,COUNTIF($AE$2:AE96,1),"")</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG96" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF96),$AF$2:$AF$250,0)),"")</f>
-        <v>Pakistan</v>
+        <v>Greece</v>
       </c>
     </row>
     <row r="97" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA97" s="4" t="s">
-        <v>99</v>
+        <v>579</v>
       </c>
       <c r="AB97" s="4" t="s">
-        <v>395</v>
+        <v>580</v>
       </c>
       <c r="AC97" s="4" t="s">
-        <v>396</v>
+        <v>581</v>
       </c>
       <c r="AD97" s="4" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="AE97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF97" s="4">
         <f>IF(AE97=1,COUNTIF($AE$2:AE97,1),"")</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG97" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF97),$AF$2:$AF$250,0)),"")</f>
-        <v>Palestine</v>
+        <v>Greenland</v>
       </c>
     </row>
     <row r="98" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA98" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AB98" s="4" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="AC98" s="4" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="AD98" s="4" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="AE98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF98" s="4">
         <f>IF(AE98=1,COUNTIF($AE$2:AE98,1),"")</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG98" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF98),$AF$2:$AF$250,0)),"")</f>
-        <v>Qatar</v>
+        <v>Grenada</v>
       </c>
     </row>
     <row r="99" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA99" s="4" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="AB99" s="4" t="s">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="AC99" s="4" t="s">
-        <v>401</v>
+        <v>584</v>
       </c>
       <c r="AD99" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF99" s="4">
         <f>IF(AE99=1,COUNTIF($AE$2:AE99,1),"")</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG99" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF99),$AF$2:$AF$250,0)),"")</f>
-        <v>Saudi Arabia</v>
+        <v>Guadeloupe</v>
       </c>
     </row>
     <row r="100" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA100" s="4" t="s">
-        <v>101</v>
+        <v>585</v>
       </c>
       <c r="AB100" s="4" t="s">
-        <v>402</v>
+        <v>586</v>
       </c>
       <c r="AC100" s="4" t="s">
-        <v>403</v>
+        <v>587</v>
       </c>
       <c r="AD100" s="4" t="s">
-        <v>373</v>
+        <v>695</v>
       </c>
       <c r="AE100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF100" s="4">
         <f>IF(AE100=1,COUNTIF($AE$2:AE100,1),"")</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG100" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF100),$AF$2:$AF$250,0)),"")</f>
-        <v>Somalia</v>
+        <v>Guam</v>
       </c>
     </row>
     <row r="101" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA101" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AB101" s="4" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="AC101" s="4" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="AD101" s="4" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="AE101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF101" s="4">
         <f>IF(AE101=1,COUNTIF($AE$2:AE101,1),"")</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG101" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF101),$AF$2:$AF$250,0)),"")</f>
-        <v>Sudan</v>
+        <v>Guatemala</v>
       </c>
     </row>
     <row r="102" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA102" s="4" t="s">
-        <v>103</v>
+        <v>792</v>
       </c>
       <c r="AB102" s="4" t="s">
-        <v>406</v>
+        <v>793</v>
       </c>
       <c r="AC102" s="4" t="s">
-        <v>407</v>
+        <v>794</v>
       </c>
       <c r="AD102" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF102" s="4">
         <f>IF(AE102=1,COUNTIF($AE$2:AE102,1),"")</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG102" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF102),$AF$2:$AF$250,0)),"")</f>
-        <v>Syrian Arab Republic</v>
+        <v>Guernsey</v>
       </c>
     </row>
     <row r="103" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA103" s="4" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="AB103" s="4" t="s">
-        <v>408</v>
+        <v>241</v>
       </c>
       <c r="AC103" s="4" t="s">
-        <v>409</v>
+        <v>242</v>
       </c>
       <c r="AD103" s="4" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="AE103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF103" s="4">
         <f>IF(AE103=1,COUNTIF($AE$2:AE103,1),"")</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG103" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF103),$AF$2:$AF$250,0)),"")</f>
-        <v>Tunisia</v>
+        <v>Guinea</v>
       </c>
     </row>
     <row r="104" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA104" s="4" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="AB104" s="4" t="s">
-        <v>410</v>
+        <v>243</v>
       </c>
       <c r="AC104" s="4" t="s">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="AD104" s="4" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="AE104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF104" s="4">
         <f>IF(AE104=1,COUNTIF($AE$2:AE104,1),"")</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG104" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF104),$AF$2:$AF$250,0)),"")</f>
-        <v>United Arab Emirates</v>
+        <v>Guinea-Bissau</v>
       </c>
     </row>
     <row r="105" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA105" s="4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AB105" s="4" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="AC105" s="4" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="AD105" s="4" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="AE105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF105" s="4">
         <f>IF(AE105=1,COUNTIF($AE$2:AE105,1),"")</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG105" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF105),$AF$2:$AF$250,0)),"")</f>
-        <v>Yemen</v>
+        <v>Guyana</v>
       </c>
     </row>
     <row r="106" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA106" s="4" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AB106" s="4" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="AC106" s="4" t="s">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="AD106" s="4" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="AE106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF106" s="4">
         <f>IF(AE106=1,COUNTIF($AE$2:AE106,1),"")</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG106" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF106),$AF$2:$AF$250,0)),"")</f>
-        <v>Albania</v>
+        <v>Haiti</v>
       </c>
     </row>
     <row r="107" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA107" s="4" t="s">
-        <v>108</v>
+        <v>795</v>
       </c>
       <c r="AB107" s="4" t="s">
-        <v>416</v>
+        <v>796</v>
       </c>
       <c r="AC107" s="4" t="s">
-        <v>417</v>
+        <v>797</v>
       </c>
       <c r="AD107" s="4" t="s">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="AE107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF107" s="4">
         <f>IF(AE107=1,COUNTIF($AE$2:AE107,1),"")</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG107" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF107),$AF$2:$AF$250,0)),"")</f>
-        <v>Andorra</v>
+        <v>Heard Island and McDonald Islands</v>
       </c>
     </row>
     <row r="108" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA108" s="4" t="s">
-        <v>109</v>
+        <v>798</v>
       </c>
       <c r="AB108" s="4" t="s">
-        <v>418</v>
+        <v>799</v>
       </c>
       <c r="AC108" s="4" t="s">
-        <v>419</v>
+        <v>800</v>
       </c>
       <c r="AD108" s="4" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="AE108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF108" s="4">
         <f>IF(AE108=1,COUNTIF($AE$2:AE108,1),"")</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG108" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF108),$AF$2:$AF$250,0)),"")</f>
-        <v>Armenia</v>
+        <v>Holy See</v>
       </c>
     </row>
     <row r="109" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA109" s="4" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AB109" s="4" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="AC109" s="4" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="AD109" s="4" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="AE109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF109" s="4">
         <f>IF(AE109=1,COUNTIF($AE$2:AE109,1),"")</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG109" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF109),$AF$2:$AF$250,0)),"")</f>
-        <v>Austria</v>
+        <v>Honduras</v>
       </c>
     </row>
     <row r="110" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA110" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AB110" s="4" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="AC110" s="4" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="AD110" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF110" s="4">
         <f>IF(AE110=1,COUNTIF($AE$2:AE110,1),"")</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AG110" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF110),$AF$2:$AF$250,0)),"")</f>
-        <v>Azerbaijan</v>
+        <v>Hungary</v>
       </c>
     </row>
     <row r="111" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA111" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AB111" s="4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AC111" s="4" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="AD111" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF111" s="4">
         <f>IF(AE111=1,COUNTIF($AE$2:AE111,1),"")</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG111" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF111),$AF$2:$AF$250,0)),"")</f>
-        <v>Belarus</v>
+        <v>Iceland</v>
       </c>
     </row>
     <row r="112" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA112" s="4" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AB112" s="4" t="s">
-        <v>427</v>
+        <v>677</v>
       </c>
       <c r="AC112" s="4" t="s">
-        <v>428</v>
+        <v>678</v>
       </c>
       <c r="AD112" s="4" t="s">
-        <v>420</v>
+        <v>672</v>
       </c>
       <c r="AE112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF112" s="4">
         <f>IF(AE112=1,COUNTIF($AE$2:AE112,1),"")</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AG112" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF112),$AF$2:$AF$250,0)),"")</f>
-        <v>Belgium</v>
+        <v>India</v>
       </c>
     </row>
     <row r="113" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA113" s="4" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="AB113" s="4" t="s">
-        <v>429</v>
+        <v>679</v>
       </c>
       <c r="AC113" s="4" t="s">
-        <v>430</v>
+        <v>680</v>
       </c>
       <c r="AD113" s="4" t="s">
-        <v>420</v>
+        <v>672</v>
       </c>
       <c r="AE113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF113" s="4">
         <f>IF(AE113=1,COUNTIF($AE$2:AE113,1),"")</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG113" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF113),$AF$2:$AF$250,0)),"")</f>
-        <v>Bosnia and Herzegovina</v>
+        <v>Indonesia</v>
       </c>
     </row>
     <row r="114" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA114" s="4" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AB114" s="4" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="AC114" s="4" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="AD114" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF114" s="4">
         <f>IF(AE114=1,COUNTIF($AE$2:AE114,1),"")</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG114" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF114),$AF$2:$AF$250,0)),"")</f>
-        <v>Bulgaria</v>
+        <v>Iran (Islamic Republic of)</v>
       </c>
     </row>
     <row r="115" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA115" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AB115" s="4" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="AC115" s="4" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="AD115" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF115" s="4">
         <f>IF(AE115=1,COUNTIF($AE$2:AE115,1),"")</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG115" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF115),$AF$2:$AF$250,0)),"")</f>
-        <v>Croatia</v>
+        <v>Iraq</v>
       </c>
     </row>
     <row r="116" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA116" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB116" s="4" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="AC116" s="4" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="AD116" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF116" s="4">
         <f>IF(AE116=1,COUNTIF($AE$2:AE116,1),"")</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG116" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF116),$AF$2:$AF$250,0)),"")</f>
-        <v>Cyprus</v>
+        <v>Ireland</v>
       </c>
     </row>
     <row r="117" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA117" s="4" t="s">
-        <v>118</v>
+        <v>801</v>
       </c>
       <c r="AB117" s="4" t="s">
-        <v>437</v>
+        <v>802</v>
       </c>
       <c r="AC117" s="4" t="s">
-        <v>438</v>
+        <v>803</v>
       </c>
       <c r="AD117" s="4" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="AE117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF117" s="4">
         <f>IF(AE117=1,COUNTIF($AE$2:AE117,1),"")</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG117" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF117),$AF$2:$AF$250,0)),"")</f>
-        <v>Czech Republic</v>
+        <v>Isle of Man</v>
       </c>
     </row>
     <row r="118" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA118" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AB118" s="4" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="AC118" s="4" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AD118" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF118" s="4">
         <f>IF(AE118=1,COUNTIF($AE$2:AE118,1),"")</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG118" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF118),$AF$2:$AF$250,0)),"")</f>
-        <v>Denmark</v>
+        <v>Israel</v>
       </c>
     </row>
     <row r="119" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA119" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB119" s="4" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="AC119" s="4" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="AD119" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF119" s="4">
         <f>IF(AE119=1,COUNTIF($AE$2:AE119,1),"")</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG119" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF119),$AF$2:$AF$250,0)),"")</f>
-        <v>Estonia</v>
+        <v>Italy</v>
       </c>
     </row>
     <row r="120" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA120" s="4" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AB120" s="4" t="s">
-        <v>443</v>
+        <v>340</v>
       </c>
       <c r="AC120" s="4" t="s">
-        <v>444</v>
+        <v>341</v>
       </c>
       <c r="AD120" s="4" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="AE120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF120" s="4">
         <f>IF(AE120=1,COUNTIF($AE$2:AE120,1),"")</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG120" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF120),$AF$2:$AF$250,0)),"")</f>
-        <v>Finland</v>
+        <v>Jamaica</v>
       </c>
     </row>
     <row r="121" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA121" s="4" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="AB121" s="4" t="s">
-        <v>445</v>
+        <v>707</v>
       </c>
       <c r="AC121" s="4" t="s">
-        <v>446</v>
+        <v>708</v>
       </c>
       <c r="AD121" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF121" s="4">
         <f>IF(AE121=1,COUNTIF($AE$2:AE121,1),"")</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG121" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF121),$AF$2:$AF$250,0)),"")</f>
-        <v>France</v>
+        <v>Japan</v>
       </c>
     </row>
     <row r="122" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA122" s="4" t="s">
-        <v>123</v>
+        <v>804</v>
       </c>
       <c r="AB122" s="4" t="s">
-        <v>447</v>
+        <v>805</v>
       </c>
       <c r="AC122" s="4" t="s">
-        <v>448</v>
+        <v>806</v>
       </c>
       <c r="AD122" s="4" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="AE122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF122" s="4">
         <f>IF(AE122=1,COUNTIF($AE$2:AE122,1),"")</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG122" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF122),$AF$2:$AF$250,0)),"")</f>
-        <v>Georgia</v>
+        <v>Jersey</v>
       </c>
     </row>
     <row r="123" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA123" s="4" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="AB123" s="4" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="AC123" s="4" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="AD123" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF123" s="4">
         <f>IF(AE123=1,COUNTIF($AE$2:AE123,1),"")</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG123" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF123),$AF$2:$AF$250,0)),"")</f>
-        <v>Germany</v>
+        <v>Jordan</v>
       </c>
     </row>
     <row r="124" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA124" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AB124" s="4" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="AC124" s="4" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="AD124" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF124" s="4">
         <f>IF(AE124=1,COUNTIF($AE$2:AE124,1),"")</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG124" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF124),$AF$2:$AF$250,0)),"")</f>
-        <v>Greece</v>
+        <v>Kazakhstan</v>
       </c>
     </row>
     <row r="125" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA125" s="4" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="AB125" s="4" t="s">
-        <v>453</v>
+        <v>245</v>
       </c>
       <c r="AC125" s="4" t="s">
-        <v>454</v>
+        <v>246</v>
       </c>
       <c r="AD125" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF125" s="4">
         <f>IF(AE125=1,COUNTIF($AE$2:AE125,1),"")</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AG125" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF125),$AF$2:$AF$250,0)),"")</f>
-        <v>Hungary</v>
+        <v>Kenya</v>
       </c>
     </row>
     <row r="126" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA126" s="4" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="AB126" s="4" t="s">
-        <v>455</v>
+        <v>709</v>
       </c>
       <c r="AC126" s="4" t="s">
-        <v>456</v>
+        <v>710</v>
       </c>
       <c r="AD126" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF126" s="4">
         <f>IF(AE126=1,COUNTIF($AE$2:AE126,1),"")</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AG126" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF126),$AF$2:$AF$250,0)),"")</f>
-        <v>Iceland</v>
+        <v>Kiribati</v>
       </c>
     </row>
     <row r="127" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA127" s="4" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="AB127" s="4" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="AC127" s="4" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="AD127" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF127" s="4">
         <f>IF(AE127=1,COUNTIF($AE$2:AE127,1),"")</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG127" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF127),$AF$2:$AF$250,0)),"")</f>
-        <v>Ireland</v>
+        <v>Kuwait</v>
       </c>
     </row>
     <row r="128" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA128" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB128" s="4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AC128" s="4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AD128" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF128" s="4">
         <f>IF(AE128=1,COUNTIF($AE$2:AE128,1),"")</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG128" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF128),$AF$2:$AF$250,0)),"")</f>
-        <v>Israel</v>
+        <v>Kyrgyzstan</v>
       </c>
     </row>
     <row r="129" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA129" s="4" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AB129" s="4" t="s">
-        <v>461</v>
+        <v>711</v>
       </c>
       <c r="AC129" s="4" t="s">
-        <v>462</v>
+        <v>712</v>
       </c>
       <c r="AD129" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE129" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF129" s="4">
         <f>IF(AE129=1,COUNTIF($AE$2:AE129,1),"")</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG129" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF129),$AF$2:$AF$250,0)),"")</f>
-        <v>Italy</v>
+        <v>Lao People's Democratic Republic</v>
       </c>
     </row>
     <row r="130" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA130" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AB130" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AC130" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AD130" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF130" s="4">
         <f>IF(AE130=1,COUNTIF($AE$2:AE130,1),"")</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG130" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF130),$AF$2:$AF$250,0)),"")</f>
-        <v>Kazakhstan</v>
+        <v>Latvia</v>
       </c>
     </row>
     <row r="131" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA131" s="4" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="AB131" s="4" t="s">
-        <v>465</v>
+        <v>385</v>
       </c>
       <c r="AC131" s="4" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="AD131" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE131" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AE131:AE194" si="3">--ISNUMBER(IFERROR(SEARCH($X$1,AA131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF131" s="4">
         <f>IF(AE131=1,COUNTIF($AE$2:AE131,1),"")</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG131" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF131),$AF$2:$AF$250,0)),"")</f>
-        <v>Kyrgyzstan</v>
+        <v>Lebanon</v>
       </c>
     </row>
     <row r="132" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA132" s="4" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="AB132" s="4" t="s">
-        <v>467</v>
+        <v>247</v>
       </c>
       <c r="AC132" s="4" t="s">
-        <v>468</v>
+        <v>248</v>
       </c>
       <c r="AD132" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE132" s="4">
-        <f t="shared" ref="AE132:AE195" si="2">--ISNUMBER(IFERROR(SEARCH($X$1,AA132,1),""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF132" s="4">
         <f>IF(AE132=1,COUNTIF($AE$2:AE132,1),"")</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AG132" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF132),$AF$2:$AF$250,0)),"")</f>
-        <v>Latvia</v>
+        <v>Lesotho</v>
       </c>
     </row>
     <row r="133" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA133" s="4" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="AB133" s="4" t="s">
-        <v>469</v>
+        <v>249</v>
       </c>
       <c r="AC133" s="4" t="s">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="AD133" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE133" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF133" s="4">
         <f>IF(AE133=1,COUNTIF($AE$2:AE133,1),"")</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG133" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF133),$AF$2:$AF$250,0)),"")</f>
-        <v>Lithuania</v>
+        <v>Liberia</v>
       </c>
     </row>
     <row r="134" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA134" s="4" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="AB134" s="4" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="AC134" s="4" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="AD134" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF134" s="4">
         <f>IF(AE134=1,COUNTIF($AE$2:AE134,1),"")</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG134" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF134),$AF$2:$AF$250,0)),"")</f>
-        <v>Luxembourg</v>
+        <v>Libya</v>
       </c>
     </row>
     <row r="135" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA135" s="4" t="s">
-        <v>136</v>
+        <v>588</v>
       </c>
       <c r="AB135" s="4" t="s">
-        <v>473</v>
+        <v>589</v>
       </c>
       <c r="AC135" s="4" t="s">
-        <v>474</v>
+        <v>590</v>
       </c>
       <c r="AD135" s="4" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="AE135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF135" s="4">
         <f>IF(AE135=1,COUNTIF($AE$2:AE135,1),"")</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG135" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF135),$AF$2:$AF$250,0)),"")</f>
-        <v>Malta</v>
+        <v>Liechtenstein</v>
       </c>
     </row>
     <row r="136" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA136" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AB136" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AC136" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AD136" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF136" s="4">
         <f>IF(AE136=1,COUNTIF($AE$2:AE136,1),"")</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG136" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF136),$AF$2:$AF$250,0)),"")</f>
-        <v>Monaco</v>
+        <v>Lithuania</v>
       </c>
     </row>
     <row r="137" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA137" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AB137" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AC137" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AD137" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE137" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF137" s="4">
         <f>IF(AE137=1,COUNTIF($AE$2:AE137,1),"")</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG137" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF137),$AF$2:$AF$250,0)),"")</f>
-        <v>Montenegro</v>
+        <v>Luxembourg</v>
       </c>
     </row>
     <row r="138" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA138" s="4" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="AB138" s="4" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
       <c r="AC138" s="4" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
       <c r="AD138" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE138" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF138" s="4">
         <f>IF(AE138=1,COUNTIF($AE$2:AE138,1),"")</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG138" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF138),$AF$2:$AF$250,0)),"")</f>
-        <v>Netherlands</v>
+        <v>Madagascar</v>
       </c>
     </row>
     <row r="139" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA139" s="4" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="AB139" s="4" t="s">
-        <v>481</v>
+        <v>253</v>
       </c>
       <c r="AC139" s="4" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
       <c r="AD139" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE139" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF139" s="4">
         <f>IF(AE139=1,COUNTIF($AE$2:AE139,1),"")</f>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG139" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF139),$AF$2:$AF$250,0)),"")</f>
-        <v>Norway</v>
+        <v>Malawi</v>
       </c>
     </row>
     <row r="140" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA140" s="4" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="AB140" s="4" t="s">
-        <v>483</v>
+        <v>713</v>
       </c>
       <c r="AC140" s="4" t="s">
-        <v>484</v>
+        <v>714</v>
       </c>
       <c r="AD140" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE140" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF140" s="4">
         <f>IF(AE140=1,COUNTIF($AE$2:AE140,1),"")</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG140" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF140),$AF$2:$AF$250,0)),"")</f>
-        <v>Poland</v>
+        <v>Malaysia</v>
       </c>
     </row>
     <row r="141" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA141" s="4" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="AB141" s="4" t="s">
-        <v>485</v>
+        <v>681</v>
       </c>
       <c r="AC141" s="4" t="s">
-        <v>486</v>
+        <v>682</v>
       </c>
       <c r="AD141" s="4" t="s">
-        <v>420</v>
+        <v>672</v>
       </c>
       <c r="AE141" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF141" s="4">
         <f>IF(AE141=1,COUNTIF($AE$2:AE141,1),"")</f>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG141" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF141),$AF$2:$AF$250,0)),"")</f>
-        <v>Portugal</v>
+        <v>Maldives</v>
       </c>
     </row>
     <row r="142" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA142" s="4" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="AB142" s="4" t="s">
-        <v>487</v>
+        <v>255</v>
       </c>
       <c r="AC142" s="4" t="s">
-        <v>488</v>
+        <v>256</v>
       </c>
       <c r="AD142" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE142" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF142" s="4">
         <f>IF(AE142=1,COUNTIF($AE$2:AE142,1),"")</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG142" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF142),$AF$2:$AF$250,0)),"")</f>
-        <v>Republic of Moldova</v>
+        <v>Mali</v>
       </c>
     </row>
     <row r="143" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA143" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AB143" s="4" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AC143" s="4" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="AD143" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE143" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF143" s="4">
         <f>IF(AE143=1,COUNTIF($AE$2:AE143,1),"")</f>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG143" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF143),$AF$2:$AF$250,0)),"")</f>
-        <v>Romania</v>
+        <v>Malta</v>
       </c>
     </row>
     <row r="144" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA144" s="4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="AB144" s="4" t="s">
-        <v>491</v>
+        <v>715</v>
       </c>
       <c r="AC144" s="4" t="s">
-        <v>492</v>
+        <v>716</v>
       </c>
       <c r="AD144" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE144" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF144" s="4">
         <f>IF(AE144=1,COUNTIF($AE$2:AE144,1),"")</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG144" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF144),$AF$2:$AF$250,0)),"")</f>
-        <v>Russian Federation</v>
+        <v>Marshall Islands</v>
       </c>
     </row>
     <row r="145" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA145" s="4" t="s">
-        <v>146</v>
+        <v>591</v>
       </c>
       <c r="AB145" s="4" t="s">
-        <v>493</v>
+        <v>592</v>
       </c>
       <c r="AC145" s="4" t="s">
-        <v>494</v>
+        <v>593</v>
       </c>
       <c r="AD145" s="4" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="AE145" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF145" s="4">
         <f>IF(AE145=1,COUNTIF($AE$2:AE145,1),"")</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG145" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF145),$AF$2:$AF$250,0)),"")</f>
-        <v>San Marino</v>
+        <v>Martinique</v>
       </c>
     </row>
     <row r="146" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA146" s="4" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AB146" s="4" t="s">
-        <v>495</v>
+        <v>257</v>
       </c>
       <c r="AC146" s="4" t="s">
-        <v>496</v>
+        <v>258</v>
       </c>
       <c r="AD146" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE146" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF146" s="4">
         <f>IF(AE146=1,COUNTIF($AE$2:AE146,1),"")</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG146" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF146),$AF$2:$AF$250,0)),"")</f>
-        <v>Serbia</v>
+        <v>Mauritania</v>
       </c>
     </row>
     <row r="147" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA147" s="4" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="AB147" s="4" t="s">
-        <v>497</v>
+        <v>259</v>
       </c>
       <c r="AC147" s="4" t="s">
-        <v>498</v>
+        <v>260</v>
       </c>
       <c r="AD147" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE147" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF147" s="4">
         <f>IF(AE147=1,COUNTIF($AE$2:AE147,1),"")</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG147" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF147),$AF$2:$AF$250,0)),"")</f>
-        <v>Slovakia</v>
+        <v>Mauritius</v>
       </c>
     </row>
     <row r="148" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA148" s="4" t="s">
-        <v>149</v>
+        <v>594</v>
       </c>
       <c r="AB148" s="4" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="AC148" s="4" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="AD148" s="4" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="AE148" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF148" s="4">
         <f>IF(AE148=1,COUNTIF($AE$2:AE148,1),"")</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG148" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF148),$AF$2:$AF$250,0)),"")</f>
-        <v>Slovenia</v>
+        <v>Mayotte</v>
       </c>
     </row>
     <row r="149" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA149" s="4" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AB149" s="4" t="s">
-        <v>501</v>
+        <v>342</v>
       </c>
       <c r="AC149" s="4" t="s">
-        <v>502</v>
+        <v>343</v>
       </c>
       <c r="AD149" s="4" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="AE149" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF149" s="4">
         <f>IF(AE149=1,COUNTIF($AE$2:AE149,1),"")</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG149" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF149),$AF$2:$AF$250,0)),"")</f>
-        <v>Spain</v>
+        <v>Mexico</v>
       </c>
     </row>
     <row r="150" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA150" s="4" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="AB150" s="4" t="s">
-        <v>503</v>
+        <v>717</v>
       </c>
       <c r="AC150" s="4" t="s">
-        <v>504</v>
+        <v>718</v>
       </c>
       <c r="AD150" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE150" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF150" s="4">
         <f>IF(AE150=1,COUNTIF($AE$2:AE150,1),"")</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG150" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF150),$AF$2:$AF$250,0)),"")</f>
-        <v>Sweden</v>
+        <v>Micronesia (Federated States of)</v>
       </c>
     </row>
     <row r="151" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA151" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AB151" s="4" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AC151" s="4" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="AD151" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE151" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF151" s="4">
         <f>IF(AE151=1,COUNTIF($AE$2:AE151,1),"")</f>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG151" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF151),$AF$2:$AF$250,0)),"")</f>
-        <v>Switzerland</v>
+        <v>Monaco</v>
       </c>
     </row>
     <row r="152" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA152" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="AB152" s="4" t="s">
-        <v>507</v>
+        <v>719</v>
       </c>
       <c r="AC152" s="4" t="s">
-        <v>508</v>
+        <v>720</v>
       </c>
       <c r="AD152" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE152" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF152" s="4">
         <f>IF(AE152=1,COUNTIF($AE$2:AE152,1),"")</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG152" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF152),$AF$2:$AF$250,0)),"")</f>
-        <v>Tajikistan</v>
+        <v>Mongolia</v>
       </c>
     </row>
     <row r="153" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA153" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AB153" s="4" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="AC153" s="4" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="AD153" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE153" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF153" s="4">
         <f>IF(AE153=1,COUNTIF($AE$2:AE153,1),"")</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG153" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF153),$AF$2:$AF$250,0)),"")</f>
-        <v>The former Yugoslav republic of Macedonia</v>
+        <v>Montenegro</v>
       </c>
     </row>
     <row r="154" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA154" s="4" t="s">
-        <v>155</v>
+        <v>597</v>
       </c>
       <c r="AB154" s="4" t="s">
-        <v>511</v>
+        <v>598</v>
       </c>
       <c r="AC154" s="4" t="s">
-        <v>512</v>
+        <v>599</v>
       </c>
       <c r="AD154" s="4" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="AE154" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF154" s="4">
         <f>IF(AE154=1,COUNTIF($AE$2:AE154,1),"")</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG154" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF154),$AF$2:$AF$250,0)),"")</f>
-        <v>Turkey</v>
+        <v>Montserrat</v>
       </c>
     </row>
     <row r="155" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA155" s="4" t="s">
-        <v>513</v>
+        <v>97</v>
       </c>
       <c r="AB155" s="4" t="s">
-        <v>514</v>
+        <v>390</v>
       </c>
       <c r="AC155" s="4" t="s">
-        <v>515</v>
+        <v>391</v>
       </c>
       <c r="AD155" s="4" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AE155" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF155" s="4">
         <f>IF(AE155=1,COUNTIF($AE$2:AE155,1),"")</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG155" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF155),$AF$2:$AF$250,0)),"")</f>
-        <v>Turkmenistan</v>
+        <v>Morocco</v>
       </c>
     </row>
     <row r="156" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA156" s="4" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AB156" s="4" t="s">
-        <v>516</v>
+        <v>261</v>
       </c>
       <c r="AC156" s="4" t="s">
-        <v>517</v>
+        <v>262</v>
       </c>
       <c r="AD156" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE156" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF156" s="4">
         <f>IF(AE156=1,COUNTIF($AE$2:AE156,1),"")</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG156" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF156),$AF$2:$AF$250,0)),"")</f>
-        <v>Ukraine</v>
+        <v>Mozambique</v>
       </c>
     </row>
     <row r="157" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA157" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB157" s="4" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="AC157" s="4" t="s">
-        <v>519</v>
+        <v>684</v>
       </c>
       <c r="AD157" s="4" t="s">
-        <v>420</v>
+        <v>672</v>
       </c>
       <c r="AE157" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF157" s="4">
         <f>IF(AE157=1,COUNTIF($AE$2:AE157,1),"")</f>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG157" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF157),$AF$2:$AF$250,0)),"")</f>
-        <v>United Kingdom of Great Britain and Northern Ireland</v>
+        <v>Myanmar</v>
       </c>
     </row>
     <row r="158" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA158" s="4" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AB158" s="4" t="s">
-        <v>520</v>
+        <v>263</v>
       </c>
       <c r="AC158" s="4" t="s">
-        <v>521</v>
+        <v>264</v>
       </c>
       <c r="AD158" s="4" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AE158" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF158" s="4">
         <f>IF(AE158=1,COUNTIF($AE$2:AE158,1),"")</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG158" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF158),$AF$2:$AF$250,0)),"")</f>
-        <v>Uzbekistan</v>
+        <v>Namibia</v>
       </c>
     </row>
     <row r="159" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA159" s="4" t="s">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="AB159" s="4" t="s">
-        <v>523</v>
+        <v>721</v>
       </c>
       <c r="AC159" s="4" t="s">
-        <v>524</v>
+        <v>722</v>
       </c>
       <c r="AD159" s="4" t="s">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="AE159" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF159" s="4">
         <f>IF(AE159=1,COUNTIF($AE$2:AE159,1),"")</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG159" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF159),$AF$2:$AF$250,0)),"")</f>
-        <v>American Samoa</v>
+        <v>Nauru</v>
       </c>
     </row>
     <row r="160" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA160" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB160" s="4" t="s">
-        <v>525</v>
+        <v>685</v>
       </c>
       <c r="AC160" s="4" t="s">
-        <v>526</v>
+        <v>686</v>
       </c>
       <c r="AD160" s="4" t="s">
-        <v>420</v>
+        <v>672</v>
       </c>
       <c r="AE160" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF160" s="4">
         <f>IF(AE160=1,COUNTIF($AE$2:AE160,1),"")</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG160" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF160),$AF$2:$AF$250,0)),"")</f>
-        <v>Anguilla</v>
+        <v>Nepal</v>
       </c>
     </row>
     <row r="161" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA161" s="4" t="s">
-        <v>527</v>
+        <v>139</v>
       </c>
       <c r="AB161" s="4" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="AC161" s="4" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="AD161" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE161" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF161" s="4">
         <f>IF(AE161=1,COUNTIF($AE$2:AE161,1),"")</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG161" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF161),$AF$2:$AF$250,0)),"")</f>
-        <v>Aruba</v>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="162" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA162" s="4" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="AB162" s="4" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="AC162" s="4" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="AD162" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE162" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF162" s="4">
         <f>IF(AE162=1,COUNTIF($AE$2:AE162,1),"")</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG162" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF162),$AF$2:$AF$250,0)),"")</f>
-        <v>Bermuda</v>
+        <v>Netherlands Antilles</v>
       </c>
     </row>
     <row r="163" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA163" s="4" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="AB163" s="4" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="AC163" s="4" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="AD163" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE163" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF163" s="4">
         <f>IF(AE163=1,COUNTIF($AE$2:AE163,1),"")</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AG163" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF163),$AF$2:$AF$250,0)),"")</f>
-        <v>Bonaire, Saint Eustatius and Saba</v>
+        <v>New Caledonia</v>
       </c>
     </row>
     <row r="164" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA164" s="4" t="s">
-        <v>537</v>
+        <v>182</v>
       </c>
       <c r="AB164" s="4" t="s">
-        <v>538</v>
+        <v>723</v>
       </c>
       <c r="AC164" s="4" t="s">
-        <v>539</v>
+        <v>724</v>
       </c>
       <c r="AD164" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE164" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF164" s="4">
         <f>IF(AE164=1,COUNTIF($AE$2:AE164,1),"")</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG164" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF164),$AF$2:$AF$250,0)),"")</f>
-        <v>British Virgin Islands</v>
+        <v>New Zealand</v>
       </c>
     </row>
     <row r="165" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA165" s="4" t="s">
-        <v>540</v>
+        <v>76</v>
       </c>
       <c r="AB165" s="4" t="s">
-        <v>541</v>
+        <v>344</v>
       </c>
       <c r="AC165" s="4" t="s">
-        <v>542</v>
+        <v>345</v>
       </c>
       <c r="AD165" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE165" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF165" s="4">
         <f>IF(AE165=1,COUNTIF($AE$2:AE165,1),"")</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG165" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF165),$AF$2:$AF$250,0)),"")</f>
-        <v>Cayman Islands</v>
+        <v>Nicaragua</v>
       </c>
     </row>
     <row r="166" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA166" s="4" t="s">
-        <v>543</v>
+        <v>41</v>
       </c>
       <c r="AB166" s="4" t="s">
-        <v>544</v>
+        <v>265</v>
       </c>
       <c r="AC166" s="4" t="s">
-        <v>545</v>
+        <v>266</v>
       </c>
       <c r="AD166" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE166" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF166" s="4">
         <f>IF(AE166=1,COUNTIF($AE$2:AE166,1),"")</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG166" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF166),$AF$2:$AF$250,0)),"")</f>
-        <v>China, Hong Kong Special Administrative Region</v>
+        <v>Niger</v>
       </c>
     </row>
     <row r="167" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA167" s="4" t="s">
-        <v>546</v>
+        <v>42</v>
       </c>
       <c r="AB167" s="4" t="s">
-        <v>547</v>
+        <v>267</v>
       </c>
       <c r="AC167" s="4" t="s">
-        <v>548</v>
+        <v>268</v>
       </c>
       <c r="AD167" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE167" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF167" s="4">
         <f>IF(AE167=1,COUNTIF($AE$2:AE167,1),"")</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG167" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF167),$AF$2:$AF$250,0)),"")</f>
-        <v>China, Macao Special Administrative Region</v>
+        <v>Nigeria</v>
       </c>
     </row>
     <row r="168" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA168" s="4" t="s">
-        <v>549</v>
+        <v>183</v>
       </c>
       <c r="AB168" s="4" t="s">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="AC168" s="4" t="s">
-        <v>551</v>
+        <v>726</v>
       </c>
       <c r="AD168" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE168" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF168" s="4">
         <f>IF(AE168=1,COUNTIF($AE$2:AE168,1),"")</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG168" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF168),$AF$2:$AF$250,0)),"")</f>
-        <v>China: Province of Taiwan only</v>
+        <v>Niue</v>
       </c>
     </row>
     <row r="169" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA169" s="4" t="s">
-        <v>552</v>
+        <v>606</v>
       </c>
       <c r="AB169" s="4" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
       <c r="AC169" s="4" t="s">
-        <v>554</v>
+        <v>608</v>
       </c>
       <c r="AD169" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE169" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF169" s="4">
         <f>IF(AE169=1,COUNTIF($AE$2:AE169,1),"")</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG169" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF169),$AF$2:$AF$250,0)),"")</f>
-        <v>Curacao</v>
+        <v>Norfolk Island</v>
       </c>
     </row>
     <row r="170" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA170" s="4" t="s">
-        <v>555</v>
+        <v>807</v>
       </c>
       <c r="AB170" s="4" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="AC170" s="4" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="AD170" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE170" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF170" s="4">
         <f>IF(AE170=1,COUNTIF($AE$2:AE170,1),"")</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG170" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF170),$AF$2:$AF$250,0)),"")</f>
-        <v>Czechoslovakia, Former</v>
+        <v>North Macedonia</v>
       </c>
     </row>
     <row r="171" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA171" s="4" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="AB171" s="4" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="AC171" s="4" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="AD171" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE171" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF171" s="4">
         <f>IF(AE171=1,COUNTIF($AE$2:AE171,1),"")</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG171" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF171),$AF$2:$AF$250,0)),"")</f>
-        <v>Falkland Islands (Malvinas)</v>
+        <v>Northern Mariana Islands</v>
       </c>
     </row>
     <row r="172" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA172" s="4" t="s">
-        <v>561</v>
+        <v>140</v>
       </c>
       <c r="AB172" s="4" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="AC172" s="4" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="AD172" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE172" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF172" s="4">
         <f>IF(AE172=1,COUNTIF($AE$2:AE172,1),"")</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG172" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF172),$AF$2:$AF$250,0)),"")</f>
-        <v>Faroe Islands</v>
+        <v>Norway</v>
       </c>
     </row>
     <row r="173" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA173" s="4" t="s">
-        <v>564</v>
+        <v>98</v>
       </c>
       <c r="AB173" s="4" t="s">
-        <v>565</v>
+        <v>392</v>
       </c>
       <c r="AC173" s="4" t="s">
-        <v>566</v>
+        <v>393</v>
       </c>
       <c r="AD173" s="4" t="s">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="AE173" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF173" s="4">
         <f>IF(AE173=1,COUNTIF($AE$2:AE173,1),"")</f>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG173" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF173),$AF$2:$AF$250,0)),"")</f>
-        <v>French Guiana</v>
+        <v>Oman</v>
       </c>
     </row>
     <row r="174" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA174" s="4" t="s">
-        <v>567</v>
+        <v>99</v>
       </c>
       <c r="AB174" s="4" t="s">
-        <v>568</v>
+        <v>394</v>
       </c>
       <c r="AC174" s="4" t="s">
-        <v>569</v>
+        <v>395</v>
       </c>
       <c r="AD174" s="4" t="s">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="AE174" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF174" s="4">
         <f>IF(AE174=1,COUNTIF($AE$2:AE174,1),"")</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG174" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF174),$AF$2:$AF$250,0)),"")</f>
-        <v>French Polynesia</v>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="175" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA175" s="4" t="s">
-        <v>570</v>
+        <v>727</v>
       </c>
       <c r="AB175" s="4" t="s">
-        <v>571</v>
+        <v>728</v>
       </c>
       <c r="AC175" s="4" t="s">
-        <v>572</v>
+        <v>729</v>
       </c>
       <c r="AD175" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE175" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF175" s="4">
         <f>IF(AE175=1,COUNTIF($AE$2:AE175,1),"")</f>
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG175" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF175),$AF$2:$AF$250,0)),"")</f>
-        <v>Germany, Former Democratic Republic</v>
+        <v>Palau</v>
       </c>
     </row>
     <row r="176" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA176" s="4" t="s">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="AB176" s="4" t="s">
-        <v>574</v>
+        <v>346</v>
       </c>
       <c r="AC176" s="4" t="s">
-        <v>575</v>
+        <v>347</v>
       </c>
       <c r="AD176" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE176" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF176" s="4">
         <f>IF(AE176=1,COUNTIF($AE$2:AE176,1),"")</f>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG176" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF176),$AF$2:$AF$250,0)),"")</f>
-        <v>Germany, Former Federal Republic</v>
+        <v>Panama</v>
       </c>
     </row>
     <row r="177" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA177" s="4" t="s">
-        <v>576</v>
+        <v>184</v>
       </c>
       <c r="AB177" s="4" t="s">
-        <v>577</v>
+        <v>730</v>
       </c>
       <c r="AC177" s="4" t="s">
-        <v>578</v>
+        <v>731</v>
       </c>
       <c r="AD177" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE177" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF177" s="4">
         <f>IF(AE177=1,COUNTIF($AE$2:AE177,1),"")</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG177" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF177),$AF$2:$AF$250,0)),"")</f>
-        <v>Germany, West Berlin</v>
+        <v>Papua New Guinea</v>
       </c>
     </row>
     <row r="178" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA178" s="4" t="s">
-        <v>579</v>
+        <v>78</v>
       </c>
       <c r="AB178" s="4" t="s">
-        <v>580</v>
+        <v>348</v>
       </c>
       <c r="AC178" s="4" t="s">
-        <v>581</v>
+        <v>349</v>
       </c>
       <c r="AD178" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE178" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF178" s="4">
         <f>IF(AE178=1,COUNTIF($AE$2:AE178,1),"")</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG178" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF178),$AF$2:$AF$250,0)),"")</f>
-        <v>Gibraltar</v>
+        <v>Paraguay</v>
       </c>
     </row>
     <row r="179" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA179" s="4" t="s">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AB179" s="4" t="s">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="AC179" s="4" t="s">
-        <v>584</v>
+        <v>351</v>
       </c>
       <c r="AD179" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE179" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF179" s="4">
         <f>IF(AE179=1,COUNTIF($AE$2:AE179,1),"")</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AG179" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF179),$AF$2:$AF$250,0)),"")</f>
-        <v>Greenland</v>
+        <v>Peru</v>
       </c>
     </row>
     <row r="180" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA180" s="4" t="s">
-        <v>585</v>
+        <v>185</v>
       </c>
       <c r="AB180" s="4" t="s">
-        <v>586</v>
+        <v>732</v>
       </c>
       <c r="AC180" s="4" t="s">
-        <v>587</v>
+        <v>733</v>
       </c>
       <c r="AD180" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE180" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF180" s="4">
         <f>IF(AE180=1,COUNTIF($AE$2:AE180,1),"")</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG180" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF180),$AF$2:$AF$250,0)),"")</f>
-        <v>Guadeloupe</v>
+        <v>Philippines</v>
       </c>
     </row>
     <row r="181" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA181" s="4" t="s">
-        <v>588</v>
+        <v>808</v>
       </c>
       <c r="AB181" s="4" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="AC181" s="4" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="AD181" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE181" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF181" s="4">
         <f>IF(AE181=1,COUNTIF($AE$2:AE181,1),"")</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG181" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF181),$AF$2:$AF$250,0)),"")</f>
-        <v>Guam</v>
+        <v>Pitcairn</v>
       </c>
     </row>
     <row r="182" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA182" s="4" t="s">
-        <v>591</v>
+        <v>141</v>
       </c>
       <c r="AB182" s="4" t="s">
-        <v>592</v>
+        <v>483</v>
       </c>
       <c r="AC182" s="4" t="s">
-        <v>593</v>
+        <v>484</v>
       </c>
       <c r="AD182" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE182" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF182" s="4">
         <f>IF(AE182=1,COUNTIF($AE$2:AE182,1),"")</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG182" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF182),$AF$2:$AF$250,0)),"")</f>
-        <v>Liechtenstein</v>
+        <v>Poland</v>
       </c>
     </row>
     <row r="183" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA183" s="4" t="s">
-        <v>594</v>
+        <v>142</v>
       </c>
       <c r="AB183" s="4" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
       <c r="AC183" s="4" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="AD183" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE183" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF183" s="4">
         <f>IF(AE183=1,COUNTIF($AE$2:AE183,1),"")</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG183" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF183),$AF$2:$AF$250,0)),"")</f>
-        <v>Martinique</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="184" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA184" s="4" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="AB184" s="4" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="AC184" s="4" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="AD184" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE184" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF184" s="4">
         <f>IF(AE184=1,COUNTIF($AE$2:AE184,1),"")</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG184" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF184),$AF$2:$AF$250,0)),"")</f>
-        <v>Mayotte</v>
+        <v>Puerto Rico</v>
       </c>
     </row>
     <row r="185" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA185" s="4" t="s">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="AB185" s="4" t="s">
-        <v>601</v>
+        <v>398</v>
       </c>
       <c r="AC185" s="4" t="s">
-        <v>602</v>
+        <v>399</v>
       </c>
       <c r="AD185" s="4" t="s">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="AE185" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF185" s="4">
         <f>IF(AE185=1,COUNTIF($AE$2:AE185,1),"")</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG185" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF185),$AF$2:$AF$250,0)),"")</f>
-        <v>Montserrat</v>
+        <v>Qatar</v>
       </c>
     </row>
     <row r="186" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA186" s="4" t="s">
-        <v>603</v>
+        <v>186</v>
       </c>
       <c r="AB186" s="4" t="s">
-        <v>604</v>
+        <v>734</v>
       </c>
       <c r="AC186" s="4" t="s">
-        <v>605</v>
+        <v>735</v>
       </c>
       <c r="AD186" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE186" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF186" s="4">
         <f>IF(AE186=1,COUNTIF($AE$2:AE186,1),"")</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG186" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF186),$AF$2:$AF$250,0)),"")</f>
-        <v>Netherlands Antilles</v>
+        <v>Republic of Korea</v>
       </c>
     </row>
     <row r="187" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA187" s="4" t="s">
-        <v>606</v>
+        <v>143</v>
       </c>
       <c r="AB187" s="4" t="s">
-        <v>607</v>
+        <v>487</v>
       </c>
       <c r="AC187" s="4" t="s">
-        <v>608</v>
+        <v>488</v>
       </c>
       <c r="AD187" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE187" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF187" s="4">
         <f>IF(AE187=1,COUNTIF($AE$2:AE187,1),"")</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG187" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF187),$AF$2:$AF$250,0)),"")</f>
-        <v>New Caledonia</v>
+        <v>Republic of Moldova</v>
       </c>
     </row>
     <row r="188" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA188" s="4" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="AB188" s="4" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="AC188" s="4" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="AD188" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE188" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF188" s="4">
         <f>IF(AE188=1,COUNTIF($AE$2:AE188,1),"")</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG188" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF188),$AF$2:$AF$250,0)),"")</f>
-        <v>Norfolk Island</v>
+        <v>Rodrigues</v>
       </c>
     </row>
     <row r="189" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA189" s="4" t="s">
-        <v>612</v>
+        <v>144</v>
       </c>
       <c r="AB189" s="4" t="s">
-        <v>613</v>
+        <v>489</v>
       </c>
       <c r="AC189" s="4" t="s">
-        <v>614</v>
+        <v>490</v>
       </c>
       <c r="AD189" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE189" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF189" s="4">
         <f>IF(AE189=1,COUNTIF($AE$2:AE189,1),"")</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AG189" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF189),$AF$2:$AF$250,0)),"")</f>
-        <v>Northern Mariana Islands</v>
+        <v>Romania</v>
       </c>
     </row>
     <row r="190" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA190" s="4" t="s">
-        <v>615</v>
+        <v>145</v>
       </c>
       <c r="AB190" s="4" t="s">
-        <v>616</v>
+        <v>491</v>
       </c>
       <c r="AC190" s="4" t="s">
-        <v>617</v>
+        <v>492</v>
       </c>
       <c r="AD190" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE190" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF190" s="4">
         <f>IF(AE190=1,COUNTIF($AE$2:AE190,1),"")</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG190" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF190),$AF$2:$AF$250,0)),"")</f>
-        <v>Pitcairn Island</v>
+        <v>Russian Federation</v>
       </c>
     </row>
     <row r="191" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA191" s="4" t="s">
-        <v>618</v>
+        <v>43</v>
       </c>
       <c r="AB191" s="4" t="s">
-        <v>619</v>
+        <v>269</v>
       </c>
       <c r="AC191" s="4" t="s">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="AD191" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE191" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF191" s="4">
         <f>IF(AE191=1,COUNTIF($AE$2:AE191,1),"")</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG191" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF191),$AF$2:$AF$250,0)),"")</f>
-        <v>Puerto Rico</v>
+        <v>Rwanda</v>
       </c>
     </row>
     <row r="192" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA192" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AB192" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AC192" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD192" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE192" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF192" s="4">
         <f>IF(AE192=1,COUNTIF($AE$2:AE192,1),"")</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG192" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF192),$AF$2:$AF$250,0)),"")</f>
-        <v>Rodrigues</v>
+        <v>Ryu Kyu Islands</v>
       </c>
     </row>
     <row r="193" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA193" s="4" t="s">
-        <v>624</v>
+        <v>809</v>
       </c>
       <c r="AB193" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AC193" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AD193" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE193" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF193" s="4">
         <f>IF(AE193=1,COUNTIF($AE$2:AE193,1),"")</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG193" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF193),$AF$2:$AF$250,0)),"")</f>
-        <v>Rï¿½union</v>
+        <v>Réunion</v>
       </c>
     </row>
     <row r="194" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA194" s="4" t="s">
-        <v>627</v>
+        <v>810</v>
       </c>
       <c r="AB194" s="4" t="s">
-        <v>628</v>
+        <v>811</v>
       </c>
       <c r="AC194" s="4" t="s">
-        <v>629</v>
+        <v>812</v>
       </c>
       <c r="AD194" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE194" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF194" s="4">
         <f>IF(AE194=1,COUNTIF($AE$2:AE194,1),"")</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG194" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF194),$AF$2:$AF$250,0)),"")</f>
-        <v>Ryu Kyu Islands</v>
+        <v>Saint Barthélemy</v>
       </c>
     </row>
     <row r="195" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA195" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AB195" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AC195" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AD195" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE195" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AE195:AE258" si="4">--ISNUMBER(IFERROR(SEARCH($X$1,AA195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF195" s="4">
         <f>IF(AE195=1,COUNTIF($AE$2:AE195,1),"")</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG195" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF195),$AF$2:$AF$250,0)),"")</f>
@@ -8538,1436 +8754,1852 @@
     </row>
     <row r="196" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA196" s="4" t="s">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="AB196" s="4" t="s">
-        <v>634</v>
+        <v>352</v>
       </c>
       <c r="AC196" s="4" t="s">
-        <v>635</v>
+        <v>353</v>
       </c>
       <c r="AD196" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE196" s="4">
-        <f t="shared" ref="AE196:AE250" si="3">--ISNUMBER(IFERROR(SEARCH($X$1,AA196,1),""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF196" s="4">
         <f>IF(AE196=1,COUNTIF($AE$2:AE196,1),"")</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG196" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF196),$AF$2:$AF$250,0)),"")</f>
-        <v>Saint Pierre and Miquelon</v>
+        <v>Saint Kitts and Nevis</v>
       </c>
     </row>
     <row r="197" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA197" s="4" t="s">
-        <v>636</v>
+        <v>81</v>
       </c>
       <c r="AB197" s="4" t="s">
-        <v>637</v>
+        <v>354</v>
       </c>
       <c r="AC197" s="4" t="s">
-        <v>638</v>
+        <v>355</v>
       </c>
       <c r="AD197" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE197" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF197" s="4">
         <f>IF(AE197=1,COUNTIF($AE$2:AE197,1),"")</f>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG197" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF197),$AF$2:$AF$250,0)),"")</f>
-        <v>Serbia and Montenegro, Former</v>
+        <v>Saint Lucia</v>
       </c>
     </row>
     <row r="198" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA198" s="4" t="s">
-        <v>639</v>
+        <v>813</v>
       </c>
       <c r="AB198" s="4" t="s">
-        <v>640</v>
+        <v>814</v>
       </c>
       <c r="AC198" s="4" t="s">
-        <v>641</v>
+        <v>815</v>
       </c>
       <c r="AD198" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE198" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF198" s="4">
         <f>IF(AE198=1,COUNTIF($AE$2:AE198,1),"")</f>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG198" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF198),$AF$2:$AF$250,0)),"")</f>
-        <v>Sint Maarten (Dutch part)</v>
+        <v>Saint Martin (French part)</v>
       </c>
     </row>
     <row r="199" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA199" s="4" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="AB199" s="4" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="AC199" s="4" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="AD199" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE199" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF199" s="4">
         <f>IF(AE199=1,COUNTIF($AE$2:AE199,1),"")</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG199" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF199),$AF$2:$AF$250,0)),"")</f>
-        <v>Sudan (former)</v>
+        <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
     <row r="200" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA200" s="4" t="s">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="AB200" s="4" t="s">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="AC200" s="4" t="s">
-        <v>647</v>
+        <v>357</v>
       </c>
       <c r="AD200" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE200" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF200" s="4">
         <f>IF(AE200=1,COUNTIF($AE$2:AE200,1),"")</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG200" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF200),$AF$2:$AF$250,0)),"")</f>
-        <v>The former state union Serbia and Montenegro</v>
+        <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
     <row r="201" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA201" s="4" t="s">
-        <v>648</v>
+        <v>187</v>
       </c>
       <c r="AB201" s="4" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="AC201" s="4" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="AD201" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE201" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF201" s="4">
         <f>IF(AE201=1,COUNTIF($AE$2:AE201,1),"")</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG201" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF201),$AF$2:$AF$250,0)),"")</f>
-        <v>Tokelau</v>
+        <v>Samoa</v>
       </c>
     </row>
     <row r="202" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA202" s="4" t="s">
-        <v>651</v>
+        <v>146</v>
       </c>
       <c r="AB202" s="4" t="s">
-        <v>652</v>
+        <v>493</v>
       </c>
       <c r="AC202" s="4" t="s">
-        <v>653</v>
+        <v>494</v>
       </c>
       <c r="AD202" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE202" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF202" s="4">
         <f>IF(AE202=1,COUNTIF($AE$2:AE202,1),"")</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG202" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF202),$AF$2:$AF$250,0)),"")</f>
-        <v>Turks and Caicos Islands</v>
+        <v>San Marino</v>
       </c>
     </row>
     <row r="203" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA203" s="4" t="s">
-        <v>654</v>
+        <v>44</v>
       </c>
       <c r="AB203" s="4" t="s">
-        <v>655</v>
+        <v>271</v>
       </c>
       <c r="AC203" s="4" t="s">
-        <v>656</v>
+        <v>272</v>
       </c>
       <c r="AD203" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE203" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF203" s="4">
         <f>IF(AE203=1,COUNTIF($AE$2:AE203,1),"")</f>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG203" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF203),$AF$2:$AF$250,0)),"")</f>
-        <v>United Kingdom, England and Wales</v>
+        <v>Sao Tome and Principe</v>
       </c>
     </row>
     <row r="204" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA204" s="4" t="s">
-        <v>657</v>
+        <v>101</v>
       </c>
       <c r="AB204" s="4" t="s">
-        <v>658</v>
+        <v>400</v>
       </c>
       <c r="AC204" s="4" t="s">
-        <v>659</v>
+        <v>401</v>
       </c>
       <c r="AD204" s="4" t="s">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="AE204" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF204" s="4">
         <f>IF(AE204=1,COUNTIF($AE$2:AE204,1),"")</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG204" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF204),$AF$2:$AF$250,0)),"")</f>
-        <v>United Kingdom, Northern Ireland</v>
+        <v>Saudi Arabia</v>
       </c>
     </row>
     <row r="205" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA205" s="4" t="s">
-        <v>660</v>
+        <v>45</v>
       </c>
       <c r="AB205" s="4" t="s">
-        <v>661</v>
+        <v>273</v>
       </c>
       <c r="AC205" s="4" t="s">
-        <v>662</v>
+        <v>274</v>
       </c>
       <c r="AD205" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE205" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF205" s="4">
         <f>IF(AE205=1,COUNTIF($AE$2:AE205,1),"")</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG205" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF205),$AF$2:$AF$250,0)),"")</f>
-        <v>United Kingdom, Scotland</v>
+        <v>Senegal</v>
       </c>
     </row>
     <row r="206" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA206" s="4" t="s">
-        <v>663</v>
+        <v>147</v>
       </c>
       <c r="AB206" s="4" t="s">
-        <v>664</v>
+        <v>495</v>
       </c>
       <c r="AC206" s="4" t="s">
-        <v>665</v>
+        <v>496</v>
       </c>
       <c r="AD206" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE206" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF206" s="4">
         <f>IF(AE206=1,COUNTIF($AE$2:AE206,1),"")</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG206" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF206),$AF$2:$AF$250,0)),"")</f>
-        <v>USSR, Former</v>
+        <v>Serbia</v>
       </c>
     </row>
     <row r="207" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA207" s="4" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="AB207" s="4" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="AC207" s="4" t="s">
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="AD207" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AE207" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF207" s="4">
         <f>IF(AE207=1,COUNTIF($AE$2:AE207,1),"")</f>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG207" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF207),$AF$2:$AF$250,0)),"")</f>
-        <v>Virgin Islands (USA)</v>
+        <v>Serbia and Montenegro, Former</v>
       </c>
     </row>
     <row r="208" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA208" s="4" t="s">
-        <v>669</v>
+        <v>46</v>
       </c>
       <c r="AB208" s="4" t="s">
-        <v>670</v>
+        <v>275</v>
       </c>
       <c r="AC208" s="4" t="s">
-        <v>671</v>
+        <v>276</v>
       </c>
       <c r="AD208" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE208" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF208" s="4">
         <f>IF(AE208=1,COUNTIF($AE$2:AE208,1),"")</f>
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG208" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF208),$AF$2:$AF$250,0)),"")</f>
-        <v>Wallis and Futuna Islands</v>
+        <v>Seychelles</v>
       </c>
     </row>
     <row r="209" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA209" s="4" t="s">
-        <v>672</v>
+        <v>47</v>
       </c>
       <c r="AB209" s="4" t="s">
-        <v>673</v>
+        <v>277</v>
       </c>
       <c r="AC209" s="4" t="s">
-        <v>674</v>
+        <v>278</v>
       </c>
       <c r="AD209" s="4" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AE209" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF209" s="4">
         <f>IF(AE209=1,COUNTIF($AE$2:AE209,1),"")</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG209" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF209),$AF$2:$AF$250,0)),"")</f>
-        <v>West Bank</v>
+        <v>Sierra Leone</v>
       </c>
     </row>
     <row r="210" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA210" s="4" t="s">
-        <v>675</v>
+        <v>188</v>
       </c>
       <c r="AB210" s="4" t="s">
-        <v>676</v>
+        <v>738</v>
       </c>
       <c r="AC210" s="4" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="AD210" s="4" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="AE210" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF210" s="4">
         <f>IF(AE210=1,COUNTIF($AE$2:AE210,1),"")</f>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG210" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF210),$AF$2:$AF$250,0)),"")</f>
-        <v>Yugoslavia, Former</v>
+        <v>Singapore</v>
       </c>
     </row>
     <row r="211" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA211" s="4" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
       <c r="AB211" s="4" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="AC211" s="4" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="AD211" s="4" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="AE211" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF211" s="4">
         <f>IF(AE211=1,COUNTIF($AE$2:AE211,1),"")</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG211" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF211),$AF$2:$AF$250,0)),"")</f>
-        <v>Bangladesh</v>
+        <v>Sint Maarten (Dutch part)</v>
       </c>
     </row>
     <row r="212" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA212" s="4" t="s">
-        <v>681</v>
+        <v>148</v>
       </c>
       <c r="AB212" s="4" t="s">
-        <v>682</v>
+        <v>497</v>
       </c>
       <c r="AC212" s="4" t="s">
-        <v>683</v>
+        <v>498</v>
       </c>
       <c r="AD212" s="4" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="AE212" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF212" s="4">
         <f>IF(AE212=1,COUNTIF($AE$2:AE212,1),"")</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG212" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF212),$AF$2:$AF$250,0)),"")</f>
-        <v>Bhutan</v>
+        <v>Slovakia</v>
       </c>
     </row>
     <row r="213" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA213" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AB213" s="4" t="s">
-        <v>684</v>
+        <v>499</v>
       </c>
       <c r="AC213" s="4" t="s">
-        <v>685</v>
+        <v>500</v>
       </c>
       <c r="AD213" s="4" t="s">
-        <v>686</v>
+        <v>416</v>
       </c>
       <c r="AE213" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF213" s="4">
         <f>IF(AE213=1,COUNTIF($AE$2:AE213,1),"")</f>
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG213" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF213),$AF$2:$AF$250,0)),"")</f>
-        <v>Democratic People's Republic of Korea</v>
+        <v>Slovenia</v>
       </c>
     </row>
     <row r="214" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA214" s="4" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AB214" s="4" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="AC214" s="4" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="AD214" s="4" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="AE214" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF214" s="4">
         <f>IF(AE214=1,COUNTIF($AE$2:AE214,1),"")</f>
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG214" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF214),$AF$2:$AF$250,0)),"")</f>
-        <v>India</v>
+        <v>Solomon Islands</v>
       </c>
     </row>
     <row r="215" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA215" s="4" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="AB215" s="4" t="s">
-        <v>689</v>
+        <v>402</v>
       </c>
       <c r="AC215" s="4" t="s">
-        <v>690</v>
+        <v>403</v>
       </c>
       <c r="AD215" s="4" t="s">
-        <v>686</v>
+        <v>370</v>
       </c>
       <c r="AE215" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF215" s="4">
         <f>IF(AE215=1,COUNTIF($AE$2:AE215,1),"")</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG215" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF215),$AF$2:$AF$250,0)),"")</f>
-        <v>Indonesia</v>
+        <v>Somalia</v>
       </c>
     </row>
     <row r="216" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA216" s="4" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="AB216" s="4" t="s">
-        <v>691</v>
+        <v>279</v>
       </c>
       <c r="AC216" s="4" t="s">
-        <v>692</v>
+        <v>280</v>
       </c>
       <c r="AD216" s="4" t="s">
-        <v>686</v>
+        <v>200</v>
       </c>
       <c r="AE216" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF216" s="4">
         <f>IF(AE216=1,COUNTIF($AE$2:AE216,1),"")</f>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG216" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF216),$AF$2:$AF$250,0)),"")</f>
-        <v>Maldives</v>
+        <v>South Africa</v>
       </c>
     </row>
     <row r="217" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA217" s="4" t="s">
-        <v>164</v>
+        <v>816</v>
       </c>
       <c r="AB217" s="4" t="s">
-        <v>693</v>
+        <v>817</v>
       </c>
       <c r="AC217" s="4" t="s">
-        <v>694</v>
+        <v>818</v>
       </c>
       <c r="AD217" s="4" t="s">
-        <v>686</v>
+        <v>524</v>
       </c>
       <c r="AE217" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF217" s="4">
         <f>IF(AE217=1,COUNTIF($AE$2:AE217,1),"")</f>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG217" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF217),$AF$2:$AF$250,0)),"")</f>
-        <v>Myanmar</v>
+        <v>South Georgia and the South Sandwich Islands</v>
       </c>
     </row>
     <row r="218" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA218" s="4" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="AB218" s="4" t="s">
-        <v>695</v>
+        <v>282</v>
       </c>
       <c r="AC218" s="4" t="s">
-        <v>696</v>
+        <v>283</v>
       </c>
       <c r="AD218" s="4" t="s">
-        <v>686</v>
+        <v>200</v>
       </c>
       <c r="AE218" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF218" s="4">
         <f>IF(AE218=1,COUNTIF($AE$2:AE218,1),"")</f>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG218" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF218),$AF$2:$AF$250,0)),"")</f>
-        <v>Nepal</v>
+        <v>South Sudan</v>
       </c>
     </row>
     <row r="219" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA219" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="AB219" s="4" t="s">
-        <v>697</v>
+        <v>501</v>
       </c>
       <c r="AC219" s="4" t="s">
-        <v>698</v>
+        <v>502</v>
       </c>
       <c r="AD219" s="4" t="s">
-        <v>686</v>
+        <v>416</v>
       </c>
       <c r="AE219" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF219" s="4">
         <f>IF(AE219=1,COUNTIF($AE$2:AE219,1),"")</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG219" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF219),$AF$2:$AF$250,0)),"")</f>
-        <v>Sri Lanka</v>
+        <v>Spain</v>
       </c>
     </row>
     <row r="220" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA220" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB220" s="4" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="AC220" s="4" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="AD220" s="4" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="AE220" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF220" s="4">
         <f>IF(AE220=1,COUNTIF($AE$2:AE220,1),"")</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG220" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF220),$AF$2:$AF$250,0)),"")</f>
-        <v>Thailand</v>
+        <v>Sri Lanka</v>
       </c>
     </row>
     <row r="221" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA221" s="4" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="AB221" s="4" t="s">
-        <v>701</v>
+        <v>404</v>
       </c>
       <c r="AC221" s="4" t="s">
-        <v>702</v>
+        <v>405</v>
       </c>
       <c r="AD221" s="4" t="s">
-        <v>686</v>
+        <v>370</v>
       </c>
       <c r="AE221" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF221" s="4">
         <f>IF(AE221=1,COUNTIF($AE$2:AE221,1),"")</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG221" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF221),$AF$2:$AF$250,0)),"")</f>
-        <v>Timor-Leste</v>
+        <v>Sudan</v>
       </c>
     </row>
     <row r="222" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA222" s="4" t="s">
-        <v>169</v>
+        <v>637</v>
       </c>
       <c r="AB222" s="4" t="s">
-        <v>703</v>
+        <v>638</v>
       </c>
       <c r="AC222" s="4" t="s">
-        <v>704</v>
+        <v>639</v>
       </c>
       <c r="AD222" s="4" t="s">
-        <v>686</v>
+        <v>524</v>
       </c>
       <c r="AE222" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF222" s="4">
         <f>IF(AE222=1,COUNTIF($AE$2:AE222,1),"")</f>
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG222" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF222),$AF$2:$AF$250,0)),"")</f>
-        <v>Australia</v>
+        <v>Sudan (former)</v>
       </c>
     </row>
     <row r="223" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA223" s="4" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="AB223" s="4" t="s">
-        <v>705</v>
+        <v>358</v>
       </c>
       <c r="AC223" s="4" t="s">
-        <v>706</v>
+        <v>359</v>
       </c>
       <c r="AD223" s="4" t="s">
-        <v>686</v>
+        <v>298</v>
       </c>
       <c r="AE223" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF223" s="4">
         <f>IF(AE223=1,COUNTIF($AE$2:AE223,1),"")</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG223" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF223),$AF$2:$AF$250,0)),"")</f>
-        <v>Brunei Darussalam</v>
+        <v>Suriname</v>
       </c>
     </row>
     <row r="224" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA224" s="4" t="s">
-        <v>171</v>
+        <v>819</v>
       </c>
       <c r="AB224" s="4" t="s">
-        <v>707</v>
+        <v>820</v>
       </c>
       <c r="AC224" s="4" t="s">
-        <v>708</v>
+        <v>821</v>
       </c>
       <c r="AD224" s="4" t="s">
-        <v>709</v>
+        <v>524</v>
       </c>
       <c r="AE224" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF224" s="4">
         <f>IF(AE224=1,COUNTIF($AE$2:AE224,1),"")</f>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG224" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF224),$AF$2:$AF$250,0)),"")</f>
-        <v>Cambodia</v>
+        <v>Svalbard and Jan Mayen</v>
       </c>
     </row>
     <row r="225" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA225" s="4" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="AB225" s="4" t="s">
-        <v>710</v>
+        <v>503</v>
       </c>
       <c r="AC225" s="4" t="s">
-        <v>711</v>
+        <v>504</v>
       </c>
       <c r="AD225" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE225" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF225" s="4">
         <f>IF(AE225=1,COUNTIF($AE$2:AE225,1),"")</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG225" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF225),$AF$2:$AF$250,0)),"")</f>
-        <v>China</v>
+        <v>Sweden</v>
       </c>
     </row>
     <row r="226" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA226" s="4" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="AB226" s="4" t="s">
-        <v>712</v>
+        <v>505</v>
       </c>
       <c r="AC226" s="4" t="s">
-        <v>713</v>
+        <v>506</v>
       </c>
       <c r="AD226" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE226" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF226" s="4">
         <f>IF(AE226=1,COUNTIF($AE$2:AE226,1),"")</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG226" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF226),$AF$2:$AF$250,0)),"")</f>
-        <v>Cook Islands</v>
+        <v>Switzerland</v>
       </c>
     </row>
     <row r="227" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA227" s="4" t="s">
-        <v>714</v>
+        <v>104</v>
       </c>
       <c r="AB227" s="4" t="s">
-        <v>715</v>
+        <v>406</v>
       </c>
       <c r="AC227" s="4" t="s">
-        <v>716</v>
+        <v>407</v>
       </c>
       <c r="AD227" s="4" t="s">
-        <v>709</v>
+        <v>370</v>
       </c>
       <c r="AE227" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF227" s="4">
         <f>IF(AE227=1,COUNTIF($AE$2:AE227,1),"")</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG227" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF227),$AF$2:$AF$250,0)),"")</f>
-        <v>Fiji</v>
+        <v>Syrian Arab Republic</v>
       </c>
     </row>
     <row r="228" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA228" s="4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="AB228" s="4" t="s">
-        <v>717</v>
+        <v>507</v>
       </c>
       <c r="AC228" s="4" t="s">
-        <v>718</v>
+        <v>508</v>
       </c>
       <c r="AD228" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE228" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF228" s="4">
         <f>IF(AE228=1,COUNTIF($AE$2:AE228,1),"")</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG228" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF228),$AF$2:$AF$250,0)),"")</f>
-        <v>Japan</v>
+        <v>Tajikistan</v>
       </c>
     </row>
     <row r="229" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA229" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AB229" s="4" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="AC229" s="4" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="AD229" s="4" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="AE229" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF229" s="4">
         <f>IF(AE229=1,COUNTIF($AE$2:AE229,1),"")</f>
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG229" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF229),$AF$2:$AF$250,0)),"")</f>
-        <v>Kiribati</v>
+        <v>Thailand</v>
       </c>
     </row>
     <row r="230" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA230" s="4" t="s">
-        <v>176</v>
+        <v>640</v>
       </c>
       <c r="AB230" s="4" t="s">
-        <v>721</v>
+        <v>641</v>
       </c>
       <c r="AC230" s="4" t="s">
-        <v>722</v>
+        <v>642</v>
       </c>
       <c r="AD230" s="4" t="s">
-        <v>709</v>
+        <v>524</v>
       </c>
       <c r="AE230" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF230" s="4">
         <f>IF(AE230=1,COUNTIF($AE$2:AE230,1),"")</f>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AG230" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF230),$AF$2:$AF$250,0)),"")</f>
-        <v>Lao People's Democratic Republic</v>
+        <v>The former state union Serbia and Montenegro</v>
       </c>
     </row>
     <row r="231" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA231" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AB231" s="4" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="AC231" s="4" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="AD231" s="4" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="AE231" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF231" s="4">
         <f>IF(AE231=1,COUNTIF($AE$2:AE231,1),"")</f>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG231" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF231),$AF$2:$AF$250,0)),"")</f>
-        <v>Malaysia</v>
+        <v>Timor-Leste</v>
       </c>
     </row>
     <row r="232" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA232" s="4" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="AB232" s="4" t="s">
-        <v>725</v>
+        <v>286</v>
       </c>
       <c r="AC232" s="4" t="s">
-        <v>726</v>
+        <v>287</v>
       </c>
       <c r="AD232" s="4" t="s">
-        <v>709</v>
+        <v>200</v>
       </c>
       <c r="AE232" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF232" s="4">
         <f>IF(AE232=1,COUNTIF($AE$2:AE232,1),"")</f>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG232" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF232),$AF$2:$AF$250,0)),"")</f>
-        <v>Marshall Islands</v>
+        <v>Togo</v>
       </c>
     </row>
     <row r="233" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA233" s="4" t="s">
-        <v>179</v>
+        <v>643</v>
       </c>
       <c r="AB233" s="4" t="s">
-        <v>727</v>
+        <v>644</v>
       </c>
       <c r="AC233" s="4" t="s">
-        <v>728</v>
+        <v>645</v>
       </c>
       <c r="AD233" s="4" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="AE233" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF233" s="4">
         <f>IF(AE233=1,COUNTIF($AE$2:AE233,1),"")</f>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG233" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF233),$AF$2:$AF$250,0)),"")</f>
-        <v>Micronesia (Federated States of)</v>
+        <v>Tokelau</v>
       </c>
     </row>
     <row r="234" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA234" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB234" s="4" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="AC234" s="4" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="AD234" s="4" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="AE234" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF234" s="4">
         <f>IF(AE234=1,COUNTIF($AE$2:AE234,1),"")</f>
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG234" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF234),$AF$2:$AF$250,0)),"")</f>
-        <v>Mongolia</v>
+        <v>Tonga</v>
       </c>
     </row>
     <row r="235" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA235" s="4" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="AB235" s="4" t="s">
-        <v>731</v>
+        <v>360</v>
       </c>
       <c r="AC235" s="4" t="s">
-        <v>732</v>
+        <v>361</v>
       </c>
       <c r="AD235" s="4" t="s">
-        <v>709</v>
+        <v>298</v>
       </c>
       <c r="AE235" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF235" s="4">
         <f>IF(AE235=1,COUNTIF($AE$2:AE235,1),"")</f>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG235" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF235),$AF$2:$AF$250,0)),"")</f>
-        <v>Nauru</v>
+        <v>Trinidad and Tobago</v>
       </c>
     </row>
     <row r="236" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA236" s="4" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="AB236" s="4" t="s">
-        <v>733</v>
+        <v>408</v>
       </c>
       <c r="AC236" s="4" t="s">
-        <v>734</v>
+        <v>409</v>
       </c>
       <c r="AD236" s="4" t="s">
-        <v>709</v>
+        <v>370</v>
       </c>
       <c r="AE236" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF236" s="4">
         <f>IF(AE236=1,COUNTIF($AE$2:AE236,1),"")</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG236" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF236),$AF$2:$AF$250,0)),"")</f>
-        <v>New Zealand</v>
+        <v>Tunisia</v>
       </c>
     </row>
     <row r="237" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA237" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="AB237" s="4" t="s">
-        <v>735</v>
+        <v>511</v>
       </c>
       <c r="AC237" s="4" t="s">
-        <v>736</v>
+        <v>512</v>
       </c>
       <c r="AD237" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE237" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF237" s="4">
         <f>IF(AE237=1,COUNTIF($AE$2:AE237,1),"")</f>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG237" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF237),$AF$2:$AF$250,0)),"")</f>
-        <v>Niue</v>
+        <v>Turkey</v>
       </c>
     </row>
     <row r="238" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA238" s="4" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="AB238" s="4" t="s">
-        <v>737</v>
+        <v>513</v>
       </c>
       <c r="AC238" s="4" t="s">
-        <v>738</v>
+        <v>514</v>
       </c>
       <c r="AD238" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE238" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF238" s="4">
         <f>IF(AE238=1,COUNTIF($AE$2:AE238,1),"")</f>
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG238" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF238),$AF$2:$AF$250,0)),"")</f>
-        <v>Palau</v>
+        <v>Turkmenistan</v>
       </c>
     </row>
     <row r="239" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA239" s="4" t="s">
-        <v>185</v>
+        <v>646</v>
       </c>
       <c r="AB239" s="4" t="s">
-        <v>739</v>
+        <v>647</v>
       </c>
       <c r="AC239" s="4" t="s">
-        <v>740</v>
+        <v>648</v>
       </c>
       <c r="AD239" s="4" t="s">
-        <v>709</v>
+        <v>298</v>
       </c>
       <c r="AE239" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF239" s="4">
         <f>IF(AE239=1,COUNTIF($AE$2:AE239,1),"")</f>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG239" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF239),$AF$2:$AF$250,0)),"")</f>
-        <v>Papua New Guinea</v>
+        <v>Turks and Caicos Islands</v>
       </c>
     </row>
     <row r="240" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA240" s="4" t="s">
-        <v>741</v>
+        <v>191</v>
       </c>
       <c r="AB240" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AC240" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AD240" s="4" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="AE240" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF240" s="4">
         <f>IF(AE240=1,COUNTIF($AE$2:AE240,1),"")</f>
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG240" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF240),$AF$2:$AF$250,0)),"")</f>
-        <v>Philippines</v>
+        <v>Tuvalu</v>
       </c>
     </row>
     <row r="241" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA241" s="4" t="s">
-        <v>186</v>
+        <v>822</v>
       </c>
       <c r="AB241" s="4" t="s">
-        <v>744</v>
+        <v>661</v>
       </c>
       <c r="AC241" s="4" t="s">
-        <v>745</v>
+        <v>662</v>
       </c>
       <c r="AD241" s="4" t="s">
-        <v>709</v>
+        <v>298</v>
       </c>
       <c r="AE241" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF241" s="4">
         <f>IF(AE241=1,COUNTIF($AE$2:AE241,1),"")</f>
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG241" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF241),$AF$2:$AF$250,0)),"")</f>
-        <v>Republic of Korea</v>
+        <v>US Virgin Islands</v>
       </c>
     </row>
     <row r="242" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA242" s="4" t="s">
-        <v>187</v>
+        <v>658</v>
       </c>
       <c r="AB242" s="4" t="s">
-        <v>746</v>
+        <v>659</v>
       </c>
       <c r="AC242" s="4" t="s">
-        <v>747</v>
+        <v>660</v>
       </c>
       <c r="AD242" s="4" t="s">
-        <v>709</v>
+        <v>524</v>
       </c>
       <c r="AE242" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF242" s="4">
         <f>IF(AE242=1,COUNTIF($AE$2:AE242,1),"")</f>
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG242" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF242),$AF$2:$AF$250,0)),"")</f>
-        <v>Samoa</v>
+        <v>USSR, Former</v>
       </c>
     </row>
     <row r="243" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA243" s="4" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="AB243" s="4" t="s">
-        <v>748</v>
+        <v>288</v>
       </c>
       <c r="AC243" s="4" t="s">
-        <v>749</v>
+        <v>289</v>
       </c>
       <c r="AD243" s="4" t="s">
-        <v>709</v>
+        <v>200</v>
       </c>
       <c r="AE243" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF243" s="4">
         <f>IF(AE243=1,COUNTIF($AE$2:AE243,1),"")</f>
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG243" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF243),$AF$2:$AF$250,0)),"")</f>
-        <v>Singapore</v>
+        <v>Uganda</v>
       </c>
     </row>
     <row r="244" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA244" s="4" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AB244" s="4" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
       <c r="AC244" s="4" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
       <c r="AD244" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE244" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF244" s="4">
         <f>IF(AE244=1,COUNTIF($AE$2:AE244,1),"")</f>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG244" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF244),$AF$2:$AF$250,0)),"")</f>
-        <v>Solomon Islands</v>
+        <v>Ukraine</v>
       </c>
     </row>
     <row r="245" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA245" s="4" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="AB245" s="4" t="s">
-        <v>752</v>
+        <v>410</v>
       </c>
       <c r="AC245" s="4" t="s">
-        <v>753</v>
+        <v>411</v>
       </c>
       <c r="AD245" s="4" t="s">
-        <v>709</v>
+        <v>370</v>
       </c>
       <c r="AE245" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF245" s="4">
         <f>IF(AE245=1,COUNTIF($AE$2:AE245,1),"")</f>
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG245" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF245),$AF$2:$AF$250,0)),"")</f>
-        <v>Tonga</v>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="246" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA246" s="4" t="s">
-        <v>191</v>
+        <v>823</v>
       </c>
       <c r="AB246" s="4" t="s">
-        <v>754</v>
+        <v>517</v>
       </c>
       <c r="AC246" s="4" t="s">
-        <v>755</v>
+        <v>518</v>
       </c>
       <c r="AD246" s="4" t="s">
-        <v>709</v>
+        <v>416</v>
       </c>
       <c r="AE246" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF246" s="4">
         <f>IF(AE246=1,COUNTIF($AE$2:AE246,1),"")</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG246" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF246),$AF$2:$AF$250,0)),"")</f>
-        <v>Tuvalu</v>
+        <v>United Kingdom of Great Britain and Northern Irela</v>
       </c>
     </row>
     <row r="247" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA247" s="4" t="s">
-        <v>192</v>
+        <v>649</v>
       </c>
       <c r="AB247" s="4" t="s">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="AC247" s="4" t="s">
-        <v>757</v>
+        <v>651</v>
       </c>
       <c r="AD247" s="4" t="s">
-        <v>709</v>
+        <v>524</v>
       </c>
       <c r="AE247" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF247" s="4">
         <f>IF(AE247=1,COUNTIF($AE$2:AE247,1),"")</f>
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG247" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF247),$AF$2:$AF$250,0)),"")</f>
-        <v>Vanuatu</v>
+        <v>United Kingdom, England and Wales</v>
       </c>
     </row>
     <row r="248" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA248" s="4" t="s">
-        <v>193</v>
+        <v>652</v>
       </c>
       <c r="AB248" s="4" t="s">
-        <v>758</v>
+        <v>653</v>
       </c>
       <c r="AC248" s="4" t="s">
-        <v>759</v>
+        <v>654</v>
       </c>
       <c r="AD248" s="4" t="s">
-        <v>709</v>
+        <v>524</v>
       </c>
       <c r="AE248" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF248" s="4">
         <f>IF(AE248=1,COUNTIF($AE$2:AE248,1),"")</f>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG248" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF248),$AF$2:$AF$250,0)),"")</f>
-        <v>Viet Nam</v>
+        <v>United Kingdom, Northern Ireland</v>
       </c>
     </row>
     <row r="249" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA249" s="4" t="s">
-        <v>194</v>
+        <v>655</v>
       </c>
       <c r="AB249" s="4" t="s">
-        <v>760</v>
+        <v>656</v>
       </c>
       <c r="AC249" s="4" t="s">
-        <v>761</v>
+        <v>657</v>
       </c>
       <c r="AD249" s="4" t="s">
-        <v>709</v>
+        <v>524</v>
       </c>
       <c r="AE249" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF249" s="4">
         <f>IF(AE249=1,COUNTIF($AE$2:AE249,1),"")</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG249" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF249),$AF$2:$AF$250,0)),"")</f>
-        <v/>
+        <v>United Kingdom, Scotland</v>
       </c>
     </row>
     <row r="250" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA250" s="4" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="AB250" s="4" t="s">
-        <v>762</v>
+        <v>290</v>
       </c>
       <c r="AC250" s="4" t="s">
-        <v>763</v>
+        <v>291</v>
       </c>
       <c r="AD250" s="4" t="s">
-        <v>709</v>
+        <v>200</v>
       </c>
       <c r="AE250" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF250" s="4">
         <f>IF(AE250=1,COUNTIF($AE$2:AE250,1),"")</f>
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG250" s="4" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF250),$AF$2:$AF$250,0)),"")</f>
+        <v>United Republic of Tanzania</v>
+      </c>
+    </row>
+    <row r="251" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA251" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB251" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="AC251" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="AD251" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE251" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF251" s="4">
+        <f>IF(AE251=1,COUNTIF($AE$2:AE251,1),"")</f>
+        <v>250</v>
+      </c>
+      <c r="AG251" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF251),$AF$2:$AF$250,0)),"")</f>
         <v/>
       </c>
     </row>
+    <row r="252" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA252" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB252" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC252" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD252" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE252" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF252" s="4">
+        <f>IF(AE252=1,COUNTIF($AE$2:AE252,1),"")</f>
+        <v>251</v>
+      </c>
+      <c r="AG252" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF252),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA253" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB253" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC253" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD253" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE253" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF253" s="4">
+        <f>IF(AE253=1,COUNTIF($AE$2:AE253,1),"")</f>
+        <v>252</v>
+      </c>
+      <c r="AG253" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF253),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA254" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB254" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC254" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD254" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE254" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF254" s="4">
+        <f>IF(AE254=1,COUNTIF($AE$2:AE254,1),"")</f>
+        <v>253</v>
+      </c>
+      <c r="AG254" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF254),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA255" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB255" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC255" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD255" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE255" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF255" s="4">
+        <f>IF(AE255=1,COUNTIF($AE$2:AE255,1),"")</f>
+        <v>254</v>
+      </c>
+      <c r="AG255" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF255),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA256" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB256" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC256" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD256" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE256" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF256" s="4">
+        <f>IF(AE256=1,COUNTIF($AE$2:AE256,1),"")</f>
+        <v>255</v>
+      </c>
+      <c r="AG256" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF256),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA257" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB257" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC257" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD257" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE257" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF257" s="4">
+        <f>IF(AE257=1,COUNTIF($AE$2:AE257,1),"")</f>
+        <v>256</v>
+      </c>
+      <c r="AG257" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF257),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA258" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB258" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC258" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD258" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE258" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF258" s="4">
+        <f>IF(AE258=1,COUNTIF($AE$2:AE258,1),"")</f>
+        <v>257</v>
+      </c>
+      <c r="AG258" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF258),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA259" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB259" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC259" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="AD259" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE259" s="4">
+        <f t="shared" ref="AE259:AE266" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA259,1),""))</f>
+        <v>1</v>
+      </c>
+      <c r="AF259" s="4">
+        <f>IF(AE259=1,COUNTIF($AE$2:AE259,1),"")</f>
+        <v>258</v>
+      </c>
+      <c r="AG259" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF259),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA260" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AB260" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC260" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD260" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE260" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF260" s="4">
+        <f>IF(AE260=1,COUNTIF($AE$2:AE260,1),"")</f>
+        <v>259</v>
+      </c>
+      <c r="AG260" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF260),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA261" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="AB261" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="AC261" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD261" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE261" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF261" s="4">
+        <f>IF(AE261=1,COUNTIF($AE$2:AE261,1),"")</f>
+        <v>260</v>
+      </c>
+      <c r="AG261" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF261),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA262" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB262" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC262" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD262" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE262" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF262" s="4">
+        <f>IF(AE262=1,COUNTIF($AE$2:AE262,1),"")</f>
+        <v>261</v>
+      </c>
+      <c r="AG262" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF262),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA263" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB263" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC263" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="AD263" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE263" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF263" s="4">
+        <f>IF(AE263=1,COUNTIF($AE$2:AE263,1),"")</f>
+        <v>262</v>
+      </c>
+      <c r="AG263" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF263),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA264" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB264" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC264" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD264" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE264" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF264" s="4">
+        <f>IF(AE264=1,COUNTIF($AE$2:AE264,1),"")</f>
+        <v>263</v>
+      </c>
+      <c r="AG264" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF264),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA265" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB265" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC265" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD265" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE265" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF265" s="4">
+        <f>IF(AE265=1,COUNTIF($AE$2:AE265,1),"")</f>
+        <v>264</v>
+      </c>
+      <c r="AG265" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF265),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA266" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB266" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="AC266" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD266" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE266" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF266" s="4">
+        <f>IF(AE266=1,COUNTIF($AE$2:AE266,1),"")</f>
+        <v>265</v>
+      </c>
+      <c r="AG266" s="4" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$250,MATCH(ROWS($AF$2:AF266),$AF$2:$AF$250,0)),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0qI61pO1wrOyhyIRHfPeDjPYv9Q4jkczu4NV7RDifto0cT/R9jJjzsX4EGwPR+oeKUDanpbnl0YGQ96W0J3S3w==" saltValue="bsI3SASmjaax5CYf0uatIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/QGl0hWg4iJUNbXAGrjug7T2M525WQjwlku0QqyHCaebHojx9iGETWmlxWc27IpFaSz94ovvlu9KAebcqCN8Lg==" saltValue="b8fM0qQo7h54NPEsxe6qww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -10069,7 +10701,7 @@
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -10142,30 +10774,30 @@
         <v>9</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="32" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="32" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="M7" s="35"/>
       <c r="O7" s="12"/>
@@ -10216,10 +10848,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -10234,10 +10866,10 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
